--- a/processos.xlsx
+++ b/processos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="75">
   <si>
     <t>Processo</t>
   </si>
@@ -40,6 +40,9 @@
     <t>Data de Disponibilização</t>
   </si>
   <si>
+    <t>PDF</t>
+  </si>
+  <si>
     <t>1007745-69.2020.8.26.0048</t>
   </si>
   <si>
@@ -206,6 +209,36 @@
   </si>
   <si>
     <t>29/10/2020</t>
+  </si>
+  <si>
+    <t>TRIBUNAL DE JUSTIÇA DO ESTADO DE SÃO PAULOCOMARCA DE ATIBAIAFORO DE ATIBAIA2ª VARA CÍVELRUA DOUTOR JOSÉ ROBERTO PAIM, 99, Atibaia - SP - CEP 12945-007Horário de Atendimento ao Público: das 12h30min às19h00min      1007745-69.2020.8.26.0048 - lauda 1SENTENÇAProcesso Digital nº:1007745-69.2020.8.26.0048Classe - AssuntoDespejo - Despejo por Denúncia VaziaRequerente:Lori LillerRequerido:Ana Maria Souza PereiraPrioridade IdosoJuiz(a) de Direito: Dr(a). Marcelo Octaviano Diniz Junqueira          Vistos.LORI LILLER ajuizou ação de despejo por denúncia vazia c.c cobrança de aluguéis e encargos locatícios contra ANA MARIA SOUZA PEREIRA, pois vencido o termo do contrato de locação residencial, a requerida foi notificada para devolução do imóvel, recusando-se a desocupá-lo. Permaneceu por mais três meses, pretendendo fosse convertida a caução em pagamento dos aluguéis. Mas transcorrido o prazo, manteve-se no uso do bem, tornando-se inadimplente desde julho de 2020.Deferida a gratuidade e tramitação processual prioritária, determinou-se a citação da parte contrária (fl. 75).Pedido para citação por Oficial de Justiça (fls. 76/77), deferido (fl. 79).Mandado com cumprimento positivo (fl. 84).A requerida contesta (fls. 86/92) alegando que se encontra adimplente com suas obrigações locatícias. Explica que tendo dado em caução o equivalente a 3 meses de antecipação, utilizou-o para quitar os últimos meses de vigência do contrato. Entende ser vedada a prática de adiantamento da cobrança dos aluguéis, nos termos do artigo 43 da Lei 8.245/91. Diz que a quantia deveria ter sido depositada em conta poupança, nos termos do artigo 38 Para conferir o original, acesse o site https://esaj.tjsp.jus.br/pastadigital/pg/abrirConferenciaDocumento.do, informe o processo 1007745-69.2020.8.26.0048 e código 726861F.Este documento é cópia do original, assinado digitalmente por MARCELO OCTAVIANO DINIZ JUNQUEIRA, liberado nos autos em 16/12/2020 às 17:01 .fls. 132,TRIBUNAL DE JUSTIÇA DO ESTADO DE SÃO PAULOCOMARCA DE ATIBAIAFORO DE ATIBAIA2ª VARA CÍVELRUA DOUTOR JOSÉ ROBERTO PAIM, 99, Atibaia - SP - CEP 12945-007Horário de Atendimento ao Público: das 12h30min às19h00min      1007745-69.2020.8.26.0048 - lauda 2§ 2º da lei de inquilinato. Explica que realizou transferência pagando os aluguéis referentes aos meses de junho a outubro. Argumenta ser idosa, com dificuldade para desocupação do imóvel, pois precisa isolar-se seguindo as recomendações da OMS.  Réplica (fls. 127/130).É o relatório. Passo a decidir. O feito comporta imediato julgamento, nos termos do artigo 355, I do Código de Processo Civil.Cuida-se de ação de despejo c.c cobrança de aluguéis e encargos.O contrato de locação foi firmado para fins residenciais, tendo por objeto o imóvel localizado na Rua Antônio Massoni, n. 121, Centro, Atibaia, com início em 27/10/2017, pelo prazo de 30 meses, e, portanto, cessaria em 01/06/2020. As partes convencionaram o aluguel mensal de R$1.200,00, reajustáveis anualmente pelo IGPM, devendo ser pagos até o dia 02 do mês seguinte, sob pena de incorrer em multa de 10%, juros de mora 2% (fls. 59/64).Obrigou-se ao pagamento do consumo de água, energia elétrica, cabendo o pagamento do imposto sobre a propriedade à locadora (cláusula 5ª).Estipulou-se, na cláusula 7ª, que terminado o termo do contrato, sem a prorrogação por prazo indeterminado, a locatária deveria restituir o imóvel completamente desocupado e em perfeito estado de conservação, nos termos do artigo 4º da Lei n. 8.245/91. Não mais pretendendo permanecer com a relação locatícia, a locadora notificou extrajudicialmente a requerida, ainda em maio de 2020, para a desocupação voluntária do imóvel (fls. 68/69). Isso após ter sido comunicada verbalmente e por e-mail (fl. 72/73).Assim, a retomada é cabível, tratando-se de denuncia vazia, Para conferir o original, acesse o site https://esaj.tjsp.jus.br/pastadigital/pg/abrirConferenciaDocumento.do, informe o processo 1007745-69.2020.8.26.0048 e código 726861F.Este documento é cópia do original, assinado digitalmente por MARCELO OCTAVIANO DINIZ JUNQUEIRA, liberado nos autos em 16/12/2020 às 17:01 .fls. 133,TRIBUNAL DE JUSTIÇA DO ESTADO DE SÃO PAULOCOMARCA DE ATIBAIAFORO DE ATIBAIA2ª VARA CÍVELRUA DOUTOR JOSÉ ROBERTO PAIM, 99, Atibaia - SP - CEP 12945-007Horário de Atendimento ao Público: das 12h30min às19h00min      1007745-69.2020.8.26.0048 - lauda 3ainda que estivesse adimplente a locatária.Nos termos do artigo 46 da Lei 8.245/91:Art. 46. Nas locações ajustadas por escrito e por prazo igual ou superior a trinta meses, a resolução do contrato ocorrerá findo o prazo estipulado, independentemente de notificação ou aviso.§ 1º Findo o prazo ajustado, se o locatário continuar na posse do imóvel alugado por mais de trinta dias sem oposição do locador, presumir€-€se€-€á prorrogada a locação por prazo indeterminado, mantidas as demais cláusulas e condições do contrato.§ 2º Ocorrendo a prorrogação, o locador poderá denunciar o contrato a qualquer tempo, concedido o prazo de trinta dias para desocupação.É o quanto basta para a procedência do pedido inaugural de despejo.Saliente-se que a pandemia de COVID-19, declarada pela Organização Mundial de Saúde em 11 de março de 2020 é fato público e notório, bem como o Estado de Calamidade Pública, com vigência até 31/12/2020, decretado pelo Congresso Nacional, pelo Decreto Legislativo nº 6, de 2020. Ademais, o Estado de São Paulo decretou medidas de enfrentamento e prevenção ao COVID-19, por meio do Decreto nº 64.879, de 20 de março de 2020, existindo medidas determinadas pela Lei n. 13.979/2020. Dentre as referidas medidas, está a denominada "quarentena" ou isolamento/distanciamento social, cuja repercussão não se limita às relações familiares e sociais, mas atinge a atividade econômica de vários setores do mercado.Contudo, a requerida alega a necessidade de manutenção do Para conferir o original, acesse o site https://esaj.tjsp.jus.br/pastadigital/pg/abrirConferenciaDocumento.do, informe o processo 1007745-69.2020.8.26.0048 e código 726861F.Este documento é cópia do original, assinado digitalmente por MARCELO OCTAVIANO DINIZ JUNQUEIRA, liberado nos autos em 16/12/2020 às 17:01 .fls. 134,TRIBUNAL DE JUSTIÇA DO ESTADO DE SÃO PAULOCOMARCA DE ATIBAIAFORO DE ATIBAIA2ª VARA CÍVELRUA DOUTOR JOSÉ ROBERTO PAIM, 99, Atibaia - SP - CEP 12945-007Horário de Atendimento ao Público: das 12h30min às19h00min      1007745-69.2020.8.26.0048 - lauda 4contrato por ser idosa, e precisar isolar-se. Oras, a autora também é idosa. E a mudança de suas mobílias pode ser realizada sem que ela permaneça no local, por terceiros especializados, se assim desejar.Deveras, há recomendação para serem evitados despejos nos termos do art. 9º da Lei n.º 14.010, de 10 de junho de 2020, que estabelece:ﬁArt. 9º Não se concederá liminar para desocupação de imóvel urbano nas ações de despejo, a que se refere o art. 59, § 1º, incisos I, II, V, VII, VIII e IX, da Lei nº 8.245, de 18 de outubro de 1991, até 30 de outubro de 2020.ﬂ Porém, tratam-se de situações que não se amoldam ao caso em comento. E ainda que o fosse, já transcorreu o prazo limite fixado em lei, período em que a crise assolava de modo mais contundente o país.No que pertine a análise de adimplemento e utilização da caução para abatimento dos aluguéis, diga-se que na cláusula 3.4 do contrato as partes convencionaram que os pagamentos de três meses adiantados seriam descontados ao término do contrato (fl. 60).À época da devolução do bem, e após vistoria, seriam verificadas avarias, que demandariam indenização pela locatária (cláusula 9  fl. 61), ainda não efetuada.E reiterou-se na cláusula 14 que o pagamento de três meses de aluguel em adiantamento era concedido como garantia, a ser descontado ao término do contrato (fl. 63).Assim, poderia a requerida permanecer sem efetuar o pagamento dos aluguéis vencidos em março, abril e maio, já que o término estava previsto para 01/06/2020.A requerida efetuou o pagamento dos aluguéis de julho e outubro, mediante transferência à autora (fls. 121/122), na intenção de permanecer no imóvel. Recorde-se, no entanto, que se trata de denúncia vazia e Para conferir o original, acesse o site https://esaj.tjsp.jus.br/pastadigital/pg/abrirConferenciaDocumento.do, informe o processo 1007745-69.2020.8.26.0048 e código 726861F.Este documento é cópia do original, assinado digitalmente por MARCELO OCTAVIANO DINIZ JUNQUEIRA, liberado nos autos em 16/12/2020 às 17:01 .fls. 135,TRIBUNAL DE JUSTIÇA DO ESTADO DE SÃO PAULOCOMARCA DE ATIBAIAFORO DE ATIBAIA2ª VARA CÍVELRUA DOUTOR JOSÉ ROBERTO PAIM, 99, Atibaia - SP - CEP 12945-007Horário de Atendimento ao Público: das 12h30min às19h00min      1007745-69.2020.8.26.0048 - lauda 5a retomada já havia sido notificada. Logo, não há impedimento para o despejo.Outrossim, referente ao pagamento do período em que usufrui do bem, lembre-se ser devido o pagamento dos locatícios e encargos até a efetiva entrega das chaves.A respeito:ﬁRESPONSABILIDADE CIVIL. Ação de indenização c.c. obrigação de fazer. Nulidade da sentença inocorrente. Possibilidade de inscrição do nome fiador no SPC. Fiador devidamente cientificado do débito líquido e certo. Obrigação até a efetiva entrega das chaves como principal pagador na forma do contrato. Benefício de ordem e renúncia da solidariedade não configurados. Negativação regular. Sentença correta. Recurso não provido.ﬂ (Apelação nº 9103292-33.2009.8.26.0000 - 28ª Câmara de Direito Privado - Relator Desembargador GILSON DELGADO MIRANDA - j. 19/03/2013 - v.u.).A requerida resta inadimplente, pois, dos meses vencidos e usufruídos, a incluir junho, agosto, setembro, novembro, e o presente, de dezembro, até a efetiva desocupação. E por conseguinte, mostra-se devido o pagamento dos locatícios encargos acrescidos de correção monetária, juros e multa, não pagos no vencimento (art. 23, I, da Lei nº 8.245/91 c.c. os arts. 315 e 569 ambos do CC de 2002).Sobre o montante devido, deve ser abatida a caução concedida, igualmente corrigida pelos índices da poupança (art. 38 § 2º, Lei 8.245/91), pois presume-se tenha a depositária guardado a quantia em instituição financeira, com rendimentos, ainda que parcos.Ainda que vedada a cobrança de aluguéis em adiantamento Para conferir o original, acesse o site https://esaj.tjsp.jus.br/pastadigital/pg/abrirConferenciaDocumento.do, informe o processo 1007745-69.2020.8.26.0048 e código 726861F.Este documento é cópia do original, assinado digitalmente por MARCELO OCTAVIANO DINIZ JUNQUEIRA, liberado nos autos em 16/12/2020 às 17:01 .fls. 136,TRIBUNAL DE JUSTIÇA DO ESTADO DE SÃO PAULOCOMARCA DE ATIBAIAFORO DE ATIBAIA2ª VARA CÍVELRUA DOUTOR JOSÉ ROBERTO PAIM, 99, Atibaia - SP - CEP 12945-007Horário de Atendimento ao Público: das 12h30min às19h00min      1007745-69.2020.8.26.0048 - lauda 6(art. 43, III da lei de locações), não há violação legal pela solicitação de caução em dinheiro, permitida em valor equivalente a três locatícios (art. 37, I, 38 § 2º, 59 § 1º, todos da lei de inquilinato).Ante o exposto, JULGO PROCEDENTES os pedidos com base no artigo 487, I, do Código de Processo Civil, e o faço para declarar rescindido o contrato de locação e decretar o despejo dos atuais ocupantes do imóvel locado, concedendo-lhe o prazo de 15 dias para a desocupação voluntária do imóvel, conforme art. 63, § 1º ﬁbﬂ, da Lei nº 8.245/91, sob pena de despejo coercitivo, independentemente da interposição de recurso ou do trânsito em julgado. Condeno a requerida ao pagamento dos valores reclamados na inicial, acrescidos dos locatícios mensais até a data da efetiva desocupação, tudo devidamente corrigido e com os encargos moratórios previstos em contrato (na omissão, juros de mora de 1% ao mês) desde os respectivos vencimentos (v. art. 62, IV da Lei 8.245/91), abatida a caução dada, atualizada.Arcará a requerida com as custas e despesas processuais, corrigidas a partir dos efetivos desembolsos, bem como com os honorários advocatícios fixados em 10% do valor da condenação (não tendo sido outro o estipulado em contrato).Por cautela, intime-se pessoalmente a ré e eventuais ocupantes do imóvel do inteiro teor desta sentença. P.R.I.C.          Atibaia, 16 de dezembro de 2020.DOCUMENTO ASSINADO DIGITALMENTE NOS TERMOS DA LEI 11.419/2006, CONFORME IMPRESSÃO À MARGEM DIREITAPara conferir o original, acesse o site https://esaj.tjsp.jus.br/pastadigital/pg/abrirConferenciaDocumento.do, informe o processo 1007745-69.2020.8.26.0048 e código 726861F.Este documento é cópia do original, assinado digitalmente por MARCELO OCTAVIANO DINIZ JUNQUEIRA, liberado nos autos em 16/12/2020 às 17:01 .fls. 137</t>
+  </si>
+  <si>
+    <t>TRIBUNAL DE JUSTIÇA DO ESTADO DE SÃO PAULOCOMARCA DE SÃO BERNARDO DO CAMPOFORO DE SÃO BERNARDO DO CAMPO5ª VARA CÍVELRUA VINTE E TRÊS DE MAIO, 107, São Bernardo do Campo - SP - CEP 09606-000Horário de Atendimento ao Público: das 12h30min às19h00min      1014017-83.2020.8.26.0564 - lauda 1SENTENÇAProcesso Digital nº:1014017-83.2020.8.26.0564Classe - AssuntoDespejo - Despejo para Uso PróprioRequerente:Jose Luiz RibeiroRequerido:Patricia Moura Telles MilitaoPrioridade IdosoJuiz de Direito: Dr. Carlo Mazza Britto MelfiVistos.José Luiz Ribeiro formulou ação de despejo por descumprimento contratual em face de Patrícia Moura Telles Militão, narrando, em suma, que, por instrumento particular de contrato de locação, firmado em 16/08/2019, as partes acordaram a locação do imóvel residencial situado na rua Edgar Gerson Barboza, n.º 106, Vila Marlene, em São Bernardo do Campo, pelo prazo de trinta meses, mediante o pagamento do valor locatício mensal de R$ 1.250,00, acrescido dos acessórios de locação. Afirma que, conforme cláusula nona do referido instrumento, a requerida contratou serviço de fiança prestado pela empresa Credpago Serviços de Cobrança, e esta, por sua vez, em 01/06/2020, o notificou acerca da extinção da garantia, sendo concedido um prazo de 30 dias para a requerida regularizar o contrato. Transcorrido o prazo, a requerida não apresentou nova garantia para o contrato de locação. Por tais motivos, requer a concessão de tutela antecipada para que a locatária seja compelida a desocupar os imóveis em 15 dias. Ao final, postulou pela procedência da demanda com o intuito de declarar a extinção da relação locatícia, a decretação de despejo e a condenação da ré ao pagamento de multa contratual no valor de três aluguéis vigentes. Juntou documentos.A decisão de p. 70 deferiu a liminar para desocupação voluntária da requerida, em quinze dias.Agravo de instrumento interposto pela ré em face da decisão que determinou o despejo liminar, ao qual foi concedido efeito suspensivo (p. 78/82). Citada, a requerida apresentou contestação em p. 84/99, sustentando, preliminarmente, carência de ação por de falta de interesse em agir por ausência de pretensão Para conferir o original, acesse o site https://esaj.tjsp.jus.br/pastadigital/pg/abrirConferenciaDocumento.do, informe o processo 1014017-83.2020.8.26.0564 e código 9F7D180.Este documento é cópia do original, assinado digitalmente por CARLO MAZZA BRITTO MELFI, liberado nos autos em 14/12/2020 às 18:43 .fls. 154,TRIBUNAL DE JUSTIÇA DO ESTADO DE SÃO PAULOCOMARCA DE SÃO BERNARDO DO CAMPOFORO DE SÃO BERNARDO DO CAMPO5ª VARA CÍVELRUA VINTE E TRÊS DE MAIO, 107, São Bernardo do Campo - SP - CEP 09606-000Horário de Atendimento ao Público: das 12h30min às19h00min      1014017-83.2020.8.26.0564 - lauda 2resistida, uma vez que não houve tentativa do autor em resolver a demanda diretamente com a requerida. No mérito, impugnou a liminar concedida, alegando não constar nos autos qualquer prova de que tenha recebido a notificação extrajudicial mencionada em inicial. Invocou motivo de força maior (pandemia causada pela pandemia de covid-19) para justificar a queda brusca em seus rendimentos mensais e afirmou que a exigência de nova garantia é medida excessivamente onerosa para a locatária, trazendo desequilíbrio contratual. Aduziu que tentou buscar outros meios de garantia com outras operadoras, todavia, não teve êxito na busca. Alegou ainda que, apesar das dificuldades financeiras, tem honrado com os pagamentos dos aluguéis. Juntou documentos.Sobreveio réplica em p. 127/138, com juntada de novos documentos (p. 139/142).Instadas as partes a especificar provas, manifestou-se a parte autora em p. 153, alegando que não há mais provas a produzir.É o relatório.Decido.A hipótese é de julgamento antecipado do mérito, ante a desnecessidade de produção de quaisquer outras provas, bastando os documentos já juntados aos autos, na forma do artigo 355, inciso I, do Código de Processo Civil.O autor aduziu que locou à requerida o imóvel descrito na inicial com garantia locatícia prestada pela empresa Credpago Serviços de Cobrança. A requerida deixou de pagar os aluguéis, razão pela qual a garantia prestada pela Credpago foi rescindida. Não foi apresentada nova garantia. Requereu a decretação do despejo, por infração contratual, e a condenação da ré ao pagamento da multa de três aluguéis.Em contestação, a requerida alegou que não foi notificada para a substituição da garantia locatícia e que a exigência de nova garantia é medida excessivamente onerosa para a locatária. Pugnou pela improcedência.Em primeiro lugar, concedo à requerida os benefícios da gratuidade de justiça. Anote-se.De início, rejeito a preliminar de falta de interesse de agir por ausência de pretensão resistida. Além de ser o direito de ação da parte autora público, subjetivo e constitucionalmente assegurado, o que dispensa eventual tentativa extrajudicial de resolução da controvérsia, a própria contestação apresentada denota a pretensão resistida, uma vez que o Para conferir o original, acesse o site https://esaj.tjsp.jus.br/pastadigital/pg/abrirConferenciaDocumento.do, informe o processo 1014017-83.2020.8.26.0564 e código 9F7D180.Este documento é cópia do original, assinado digitalmente por CARLO MAZZA BRITTO MELFI, liberado nos autos em 14/12/2020 às 18:43 .fls. 155,TRIBUNAL DE JUSTIÇA DO ESTADO DE SÃO PAULOCOMARCA DE SÃO BERNARDO DO CAMPOFORO DE SÃO BERNARDO DO CAMPO5ª VARA CÍVELRUA VINTE E TRÊS DE MAIO, 107, São Bernardo do Campo - SP - CEP 09606-000Horário de Atendimento ao Público: das 12h30min às19h00min      1014017-83.2020.8.26.0564 - lauda 3direito do autor foi negado, confirmando o interesse processual e a necessidade de se socorrer à via jurisdicional. Ademais, a ré não apresentou qualquer proposta de acordo.No mérito, observa-se que a requerida, em sede de contestação, não negou que o contrato de locação objeto da presente demanda estivesse desprovido de garantia contratual. Com efeito, as mensagens encaminhadas por aplicativo e juntadas em p. 139/142 demonstram que a requerida efetivamente estava ciente do prazo de 30 dias para apresentar uma nova garantia ao contrato. Neste aspecto, apesar de citada, também não apresentou fiança, caução ou outra modalidade de garantia durante o processo, assumindo, inclusive, a inviabilidade financeira.Dessa maneira, restou claro que houve infração contratual, posto que incontroversa a exoneração da empresa garantidora e a prévia notificação da requerida para fins de substituição da garantia, sobrevindo a inércia até os dias de hoje.A multa encontra-se prevista contratualmente, conforme cláusula décima (p. 16). Com efeito, o simples descumprimento da obrigação gera o dever de pagamento da cláusula penal, quando estipulada (artigo 408 do Código Civil).Anoto que as dificuldades econômicas em questão se iniciaram mesmo antes da pandemia de covid-19 (vide relatório de p. 51), o que afasta a alegação de excepcionalidade. Ademais, a deterioração geral da economia, em nada acarretou desequilíbrio das bases contratuais, mas, ao contrário, afetou negativamente a maioria das atividades produtivas, sem nenhum benefício ao locador.Assim, restando incontroverso o descumprimento da obrigação, de rigor a procedência da demanda.Ante o exposto, JULGO PROCEDENTE a demanda, na forma do artigo 487, inciso I, do Código de Processo Civil, para declarar rescindida a locação e para decretar o despejo da requerida, no prazo de 15 dias, expedindo-se o competente mandado de notificação para desocupação voluntária pela requerida. Condeno a ré ao pagamento do valor R$ 3.750,00, relativo à multa estabelecida contratualmente, que deverá ser atualizado monetariamente, conforme os índices do Tribunal de Justiça de São Paulo, com a incidência de juros de mora de 1% ao mês, tudo devido a partir da propositura da ação.Condeno a requerida ao pagamento das custas, despesas processuais assim como dos honorários advocatícios da parte contrária, fixados em R$ 800,00, na forma do art. Para conferir o original, acesse o site https://esaj.tjsp.jus.br/pastadigital/pg/abrirConferenciaDocumento.do, informe o processo 1014017-83.2020.8.26.0564 e código 9F7D180.Este documento é cópia do original, assinado digitalmente por CARLO MAZZA BRITTO MELFI, liberado nos autos em 14/12/2020 às 18:43 .fls. 156,TRIBUNAL DE JUSTIÇA DO ESTADO DE SÃO PAULOCOMARCA DE SÃO BERNARDO DO CAMPOFORO DE SÃO BERNARDO DO CAMPO5ª VARA CÍVELRUA VINTE E TRÊS DE MAIO, 107, São Bernardo do Campo - SP - CEP 09606-000Horário de Atendimento ao Público: das 12h30min às19h00min      1014017-83.2020.8.26.0564 - lauda 485, §8º, do Código de Processo Civil. Sendo a requerida beneficiária da justiça gratuita, as obrigações decorrentes de sua sucumbência ficarão sob condição suspensiva de exigibilidade, nos termos do artigo 98, § 3º do Código de Processo Civil.P.I.C.São Bernardo do Campo, 14 de dezembro de 2020DOCUMENTO ASSINADO DIGITALMENTE NOS TERMOS DA LEI 11.419/2006, CONFORME IMPRESSÃO À MARGEM DIREITAPara conferir o original, acesse o site https://esaj.tjsp.jus.br/pastadigital/pg/abrirConferenciaDocumento.do, informe o processo 1014017-83.2020.8.26.0564 e código 9F7D180.Este documento é cópia do original, assinado digitalmente por CARLO MAZZA BRITTO MELFI, liberado nos autos em 14/12/2020 às 18:43 .fls. 157</t>
+  </si>
+  <si>
+    <t>TRIBUNAL DE JUSTIÇA DO ESTADO DE SÃO PAULOCOMARCA de SÃO PAULOFORO REGIONAL II - SANTO AMARO1ª VARA CÍVELAVENIDA DAS NAÇÕES UNIDAS, N 22.939, 12 ANDAR, VILA ALMEIDA, SÃO PAULO - SP - CEP 04795-100Horário de Atendimento ao Público: das 12h30min às19h00min      1044622-49.2020.8.26.0002 - lauda 1SENTENÇAProcesso Digital nº:1044622-49.2020.8.26.0002Classe - AssuntoDespejo - Despejo por Denúncia VaziaRequerente:Julia Fontoura da Silva e outroRequerido:Rene Anselmo e outroTrata-se de ação de despejo ajuizada por JULIA FONTOURA DA SILVA e HILDEBERTO FONTOURA DA SILVA contra RENE ANSELMO e ROGER DE SOUZA VALENTIM DA CRUZ versando sobre despejo por denúncia vazia.Atribuiu-se à causa o valor de R$ 36.000,00.Em resumo, alega a parte autora que celebrou contrato de locação comercial com os requeridos com início em 24/01/2018, cujo valor mensal do aluguel pactuado foi de R$ 3.000,00, sendo que nos primeiro 12 meses haveria um desconto para a fixação da obrigação mensal em R$ 2.600,00. Alega que haveria um erro ortográfico no contrato, vez que apesar de constar a duração expressa de 30 meses, foi erroneamente estipulado a data final da locação para o mês de janeiro de 2021, quando o correto deveria ser julho de 2020.Aduz, ainda, que o contrato deixou de ser adimplido em diversos momentos, deixando os requeridos de quitar as mensalidades, possuindo um débito de R$ 32.429,40 quando da distribuição da presente ação. Narra que foi feita tentativa de cobrança para pagamento amigável dos valores em aberto, sem resultado. Como pedidos finais, requereu a cobrança do valor de R$ 32.429,40 referente aos alugueis em aberto, bem como os que vierem a vencer até a data da efetiva desocupação, acrescido de multa contratual, juros de mora e correção monetária, bem como o despejo dos locadores. Juntou documentos (fls. 09/21).Citada (fls. 34/35), a parte ré apresentou contestação (fls. 36/52). No mérito, argumenta que o contrato foi celebrado com o prazo de 36 meses, e que a data final da celebração prevista em contrato está correta para janeiro de 2021, sendo que o erro existe na previsão de prazo de 30 meses, quando deveria constar 36.Aduz, ainda, ter tido prejuízos decorrentes de uma infiltração no telhado e em Para conferir o original, acesse o site https://esaj.tjsp.jus.br/pastadigital/pg/abrirConferenciaDocumento.do, informe o processo 1044622-49.2020.8.26.0002 e código CE82118.Este documento é cópia do original, assinado digitalmente por PEDRO LUIZ FERNANDES NERY RAFAEL, liberado nos autos em 14/12/2020 às 14:09 .fls. 85,TRIBUNAL DE JUSTIÇA DO ESTADO DE SÃO PAULOCOMARCA de SÃO PAULOFORO REGIONAL II - SANTO AMARO1ª VARA CÍVELAVENIDA DAS NAÇÕES UNIDAS, N 22.939, 12 ANDAR, VILA ALMEIDA, SÃO PAULO - SP - CEP 04795-100Horário de Atendimento ao Público: das 12h30min às19h00min      1044622-49.2020.8.26.0002 - lauda 2virtude de problemas elétricos no imóvel, motivo pelo qual a proprietária entrou em acordo com os requeridos para diminuir o valor mensal do aluguel e compensar os danos sofridos, sendo que os novos valores de aluguéis passaram a ter descontos da seguinte forma: do mês 2/2019 até o mês 06/2019, desconto de R$ 400,00; do mês 07/19 até o mês 01/2020, desconto de R$ 800,00; do mês 02/2020 até 01/2021, desconto era de R$ 400,00.Narra, ainda, que a requerente se recusou de maneira injustificada a receber os aluguéis correspondentes aos meses de 24/06/2020 e 24/07/2020, e que, dessa forma, a mora em pagamentos dos referidos meses se deu por culpa dos requerentes. Ao final, requereu a improcedência dos pedidos. Pleiteou os benefícios da gratuidade de justiça. Juntou documentos (fls. 53/70).Houve réplica (fls. 73/75).A parte autora não requereu a produção de provas adicionais, tendo os requeridos solicitado a oitiva de testemunhas em audiência.É o relato do necessário. Fundamento e DECIDO.O feito está suficientemente instruído, não demandando mais nenhuma providência de cunho probatório. Assim, passo ao imediato julgamento do processo, nos termos do CPC, 355, I. Conforme já decidiu o Supremo Tribunal Federal: ﬁa necessidade de produção de prova há de ficar evidenciada para que o julgamento antecipado da lide implique em cerceamento de defesa. A antecipação é legítima se os aspectos decisivos estão suficientemente líquidos para embasar o convencimento do Magistradoﬂ (RE 101171, Relator Min. FRANCISCO REZEK, SEGUNDA TURMA, julgado em 05/10/1984, DJ 07-12-1984 p. 20990).Os artigos 370 e 371 do CPC autorizam o juiz a ponderar sobre as pretensões e as defesas formuladas, os documentos acostados aos autos, os atos processuais realizados e, após atenta análise do que foi produzido, de acordo com sua convicção, deliberar sobre a necessidade de produção de outras provas e indeferir requerimentos que não reputar úteis ou essenciais, resolvendo se a hipótese demanda ou não eventual complementação de instrução.Com base no livre convencimento motivado, impõe-se o afastamento de Para conferir o original, acesse o site https://esaj.tjsp.jus.br/pastadigital/pg/abrirConferenciaDocumento.do, informe o processo 1044622-49.2020.8.26.0002 e código CE82118.Este documento é cópia do original, assinado digitalmente por PEDRO LUIZ FERNANDES NERY RAFAEL, liberado nos autos em 14/12/2020 às 14:09 .fls. 86,TRIBUNAL DE JUSTIÇA DO ESTADO DE SÃO PAULOCOMARCA de SÃO PAULOFORO REGIONAL II - SANTO AMARO1ª VARA CÍVELAVENIDA DAS NAÇÕES UNIDAS, N 22.939, 12 ANDAR, VILA ALMEIDA, SÃO PAULO - SP - CEP 04795-100Horário de Atendimento ao Público: das 12h30min às19h00min      1044622-49.2020.8.26.0002 - lauda 3providências impertinentes, irrelevantes ou protelatórias para o regular andamento do processo, prerrogativa que, em regra, não configura o cerceamento de defesa (STJ, AgRg no AREsp 295.458/RS, Rel. Min. Castro Meira, 2ª Turma, j. 25.06.2013). É justamente a hipótese dos autos, mostrando-se desnecessária a dilação probatória, pois as alegações controvertidas foram devidamente esclarecidas pela prova documental, não tendo a prova oral ou pericial o poder de trazer quaisquer esclarecimentos relevantes para solução do processo. Não se deve olvidar que compete ao magistrado velar pela duração razoável do processo (CPC 139, II), atendendo inclusive à garantia constitucional prevista expressamente, no artigo 5o, inciso LXXVIII, da Constituição. Ademais, na hipótese em análise, verifica-se que os autores pretendem a retomada imediata do imóvel, enquanto é do claro interesse dos réus a manutenção no local. Assim, as provas, além de despiciendas, serviriam a propósito protelatório.Na lição de Marcelo José Magalhães Bonicio, ﬁa fase instrutória do processo costuma ser mais longa do que o necessário, servindo muito mais aos propósitos protelatórios das partes do que ao descobrimento da verdade. A excessiva complacência dos juízes, temerosos em indeferir o requerimento de produção de provas, contribui sensivelmente para agravar esta situação (...). Exatamente neste ponto encontra-se a primeira possibilidade de utilização do princípio da proporcionalidade no campo das provasﬂ (Proporcionalidade e processo: a garantia constitucional da proporcionalidade, a legitimação do processo civil e o controle das decisões judiciais. São Paulo: Atlas, 2006, p. 80).Não existem preliminares a analisar.Quanto ao mérito, cinge-se a questão em decidir se os autores têm direito à cobrança pretendida, bem como ao despejo dos inquilinos.A parte autora alega que faz jus ao direito pleiteado porque os requeridos não comprovam o pagamento da integralidade dos débitos locatícios.A parte requerida, de seu turno, diverge dos valores, afirma que fez o pagamento com descontos em virtude dos danos sofridos pelos problemas no telhado e instalação elétrica do imóvel, conforme acordo verbal, e que os outros meses em aberto foram inadimplidos em razão da Para conferir o original, acesse o site https://esaj.tjsp.jus.br/pastadigital/pg/abrirConferenciaDocumento.do, informe o processo 1044622-49.2020.8.26.0002 e código CE82118.Este documento é cópia do original, assinado digitalmente por PEDRO LUIZ FERNANDES NERY RAFAEL, liberado nos autos em 14/12/2020 às 14:09 .fls. 87,TRIBUNAL DE JUSTIÇA DO ESTADO DE SÃO PAULOCOMARCA de SÃO PAULOFORO REGIONAL II - SANTO AMARO1ª VARA CÍVELAVENIDA DAS NAÇÕES UNIDAS, N 22.939, 12 ANDAR, VILA ALMEIDA, SÃO PAULO - SP - CEP 04795-100Horário de Atendimento ao Público: das 12h30min às19h00min      1044622-49.2020.8.26.0002 - lauda 4pandemia de COVID-19.Após detida análise das alegações das partes e das provas anexadas aos autos, conclui-se que a pretensão da parte autora é procedente.Está demonstrada a relação contratual, com locação comercial, cujo termo inicial se deu em 24/01/2018 (fls. 10/16). Por meio das cláusulas contratuais, as partes ajustaram o aluguel mensal no valor de R$ 3.000,00 reais, com desconto integral nos 3 primeiros meses, para adequação da oficina mecânica por parte dos locatários conforme cláusula 3ª, parágrafo único (fls. 11/12), e de R$ 400,00 nos 9 meses seguintes. Após estes 12 meses iniciais, o aluguel foi fixado em R$ 3.000,00, com reajuste pelo IGP-M. A falta de pagamento das prestações da locação reclamadas na inicial ficou demonstrada pelos autores, não tendo os réus comprovado o pagamento pela forma pactuada. A toda evidência, os recibos apresentados comprovam somente o pagamento parcial da avença, pois não indicam a quitação integral do aluguel com o pagamento parcial. Referidos documentos, acostados às fls. 53/69 não comprovam a expressa renúncia, por parte dos autores, da diferença dos valores pagos e do total devido, nem mesmo são hábeis a indicar qualquer acordo celebrado para modificação das cláusulas referentes ao pagamento. É dizer: os recibos com indicação de pagamentos a menor fazem prova mais contra os réus do que contra os autores, pois indicam justamente a veracidade da narrativa inicial, sem dar supedâneo a um suposto desconto pactuado.Como se sabe, firmado o contrato por forma escrita, as alterações substanciais das principais cláusulas - dentre elas a relativa ao preço da locação - devem se realizar também por tal forma. Inviável alterar de forma verbal o quanto contratado por escrito.A par disso, tem-se que a prova testemunhal requerida é absolutamente impertinente e insuficiente à demonstração do alegado acordo que autorizasse abatimento de locação, inclusive pela falta de precisão de relatos quanto a valores, prazos, datas etc. A prova testemunhal é por demais frágil para tanto, notadamente em se tratando de fatos que demandam precisos detalhes, e que já ocorreram há quase dois anos. Aliás, mesmo por escrito não se mostrou possível a demonstração dos ditos detalhes, já que apenas se consignou que houve redução em caráter compensatório (sem especificar do quê exatamente) e de forma contínua (sem precisar o insólito cronograma de modificação sustentado na contestação).Para conferir o original, acesse o site https://esaj.tjsp.jus.br/pastadigital/pg/abrirConferenciaDocumento.do, informe o processo 1044622-49.2020.8.26.0002 e código CE82118.Este documento é cópia do original, assinado digitalmente por PEDRO LUIZ FERNANDES NERY RAFAEL, liberado nos autos em 14/12/2020 às 14:09 .fls. 88,TRIBUNAL DE JUSTIÇA DO ESTADO DE SÃO PAULOCOMARCA de SÃO PAULOFORO REGIONAL II - SANTO AMARO1ª VARA CÍVELAVENIDA DAS NAÇÕES UNIDAS, N 22.939, 12 ANDAR, VILA ALMEIDA, SÃO PAULO - SP - CEP 04795-100Horário de Atendimento ao Público: das 12h30min às19h00min      1044622-49.2020.8.26.0002 - lauda 5Não bastasse, observa-se que são dois os locadores que figuram no contrato, Hildeberto e Júlia, sendo que as declarações de fls. 67/69 indicam apenas a participação da autora Júlia em uma suposta negociação para redução dos encargos, o que não teria validade, já que necessária a presença de todos os contratantes para alteração da avença. Ainda que se aceitasse a alteração verbal do contrato escrito, seria necessário que todas as partes envolvidas participassem da dita reunião.Aliás, a forma de compensação apresentada pelos réus, além de não ter sido convencionada por escrito, ou mesmo por todos os contratantes, o que era juridicamente exigível tendo em vista o caráter da avença, não tem o mínimo sentido. O cronograma de descontos apenas ajusta-se à inadimplência dos réus e nada mais, pois feitos de forma totalmente aleatória, seja no que diz respeito à periodicidade (supostamente iniciam em R$ 400,00, depois vão para R$ 800,00, e retornam para R$ 400,00, em sequência carente de qualquer justificativa ou padrão minimamente reconhecível), seja em relação aos valores (não chegam perto de compensar os supostos prejuízos de R$ 30.000,00, como ser verá a seguir Œ a rigor, os descontos representariam apenas R$ 8.800,00, o que do ponto de vista dos locatários seria absolutamente prejudicial, caso os danos de R$ 30.000,00 tivessem mesmo ocorrido).Além de tal ponto, certo que a narrativa dos réus não encontra respaldo em nenhum outro elemento, que poderia ser facilmente comprovado. Quanto ao telhado, inicialmente deve-se consignar que foi pactuado que a adequação seria de integral responsabilidade dos locatários, que tiveram desconto de exatos R$ 12.600,00 no primeiro ano de contrato para realizar as adaptações necessárias. Portanto, tem-se que: i) os réus ingressaram no imóvel já sabendo da necessidade de adequar o telhado; ii) não foi comprovado qualquer problema estrutural ocorrido durante a vigência da locação e iii) ainda que tivessem ocorrido tais problemas, certo que os locatários dispuseram de tempo e dinheiro para reformar o imóvel, não podendo imputar aos locadores responsabilidade por algo que expressamente assumiram.O mesmo se diga sobre os alegados danos elétricos. Prova extremamente fácil de se fazer, seja por meio da concessionária de energia elétrica, ou com apresentação dos equipamentos danificados, recibos dos consertos ou da compra de novos aparelhos. E, novamente, repita-se, a adequação estrutural do prédio para exploração do ramo dos réus era de Para conferir o original, acesse o site https://esaj.tjsp.jus.br/pastadigital/pg/abrirConferenciaDocumento.do, informe o processo 1044622-49.2020.8.26.0002 e código CE82118.Este documento é cópia do original, assinado digitalmente por PEDRO LUIZ FERNANDES NERY RAFAEL, liberado nos autos em 14/12/2020 às 14:09 .fls. 89,TRIBUNAL DE JUSTIÇA DO ESTADO DE SÃO PAULOCOMARCA de SÃO PAULOFORO REGIONAL II - SANTO AMARO1ª VARA CÍVELAVENIDA DAS NAÇÕES UNIDAS, N 22.939, 12 ANDAR, VILA ALMEIDA, SÃO PAULO - SP - CEP 04795-100Horário de Atendimento ao Público: das 12h30min às19h00min      1044622-49.2020.8.26.0002 - lauda 6responsabilidade destes, e apenas destes. Não se pode imputar aos autores qualquer responsabilidade por uma suposta precariedade das instalações, já que os réus vistoriaram o local e concordaram em reformá-lo e adequá-lo para seu uso.Também não serve como tese de defesa a impedir o fim do contrato e condenação ao pagamento dos valores em aberto a argumentação de que os autores recusaram-se a receber os aluguéis dos meses indicados em contestação. Fosse esse realmente o caso, cabia aos réus constituíl-los em mora e a obrigação de consigná-los em juízo, conforme determina a lei (CC 335). E, ao fim e ao cabo, a recusa em receber o pagamento não elide a obrigação de fazê-lo.Por derradeiro, o prazo de locação é discussão que carece de sentido, tendo em vista ter o feito se alongado até próximo de janeiro de 2021, data reclamada pelos réus. Assim, a desocupação será determinada para tal data, ficando os réus incumbidos de pagar todos os encargos do aluguel até lá. Inviável acolher a tese de manutenção no imóvel até o fim do estado de calamidade pública, seja porque não se trata de fato novo, sendo que as partes já tiverem tempo demasiado  para se adaptar, seja porque as atividades já praticamente em total normalidade Œ diga-se que as oficinas mecânicas não tiveram seus serviços interrompidos. De mais a mais, já findou o prazo estabelecido pela Lei 14.010/20, não sendo lícito estendê-lo sem razões bastantes, o que representaria indevida restrição ao direito de propriedade dos requerentes. Como argumento final, repise-se a obrigação do magistrado de zelar pela rápida duração do processo, inviabilizando as intenções protelatórias da parte.Assim, observa-se que a planilha apresentada encontra-se alinhada com as provas dos autos e as disposições contratuais, inclusive multa de 10% sobre os valores devidos e juros de 1% ao mês a partir da mora, de todo comprovada e não infirmada pelos réus.Ante o exposto, resolvendo o mérito do processo (CPC 487, I), JULGO PROCEDENTE a pretensão da parte autora para: DECLARAR resolvido o contrato de locação firmado entre as partes, decretando o DESPEJO dos locatários, concedendo-lhe até 31 de janeiro de 2021 para integral desocupação do imóvel em estado de conservação conforme previsto em contrato, sob pena de desocupação forçada; bem como para CONDENAR os requeridos: i) ao pagamento de R$ 27.024,50 a título de aluguéis não pagos, bem como ii) todos aluguéis vencidos até a efetiva desocupação, descontando-se do montante devido os valores dados a título de caução.  Os valores da condenação devem ser corrigidos pela Tabela Prática do TJSP, desde a propositura Para conferir o original, acesse o site https://esaj.tjsp.jus.br/pastadigital/pg/abrirConferenciaDocumento.do, informe o processo 1044622-49.2020.8.26.0002 e código CE82118.Este documento é cópia do original, assinado digitalmente por PEDRO LUIZ FERNANDES NERY RAFAEL, liberado nos autos em 14/12/2020 às 14:09 .fls. 90,TRIBUNAL DE JUSTIÇA DO ESTADO DE SÃO PAULOCOMARCA de SÃO PAULOFORO REGIONAL II - SANTO AMARO1ª VARA CÍVELAVENIDA DAS NAÇÕES UNIDAS, N 22.939, 12 ANDAR, VILA ALMEIDA, SÃO PAULO - SP - CEP 04795-100Horário de Atendimento ao Público: das 12h30min às19h00min      1044622-49.2020.8.26.0002 - lauda 7da ação.Condeno, ainda, a parte ré ao pagamento i) das custas e despesas suportadas pela parte autora até este momento, e ii) de honorários advocatícios ao patrono desta em valor equivalente a 20% sobre o total da condenação, CPC 85, § 2º, e conforme previsto em contrato.Decorrido o prazo concedido sem a desocupação, o que deverá ser informado pelo autor, expeça-se mandado forçado de despejo. Ressalto que a desocupação está sendo determinada em caráter liminar, devendo ser cumprida ainda que haja recurso da presente decisão.INDEFIRO a gratuidade requerida, não sendo os documentos apresentados hábeis à comprovação da alegada hipossuficiência. Ademais, os requeridos celebraram contrato de aluguel comercial em valor expressivo, contrataram patrono particular para a defesa e não trouxeram aos autos nenhuma comprovação da impossibilidade de arcarem com as custas, despesas e/ou sucumbência.Desde já advirto que a oposição de eventuais embargos declaratórios para modificação da presente sentença será coibida com a aplicação de multa, tendo em vista o caráter de tal espécie recursal.Para interposição de eventual recurso, o valor do preparo deverá corresponder a 4% (quatro por cento) sobre o valor atualizado da causa, na forma do disposto no art. 4º, II e § 2º da Lei Estadual 11.608/03, observando-se o mínimo de 5 e o máximo de 3.000 UFESPs (art. 4º, § 1º). Publique-se. Intime-se.Pedro Luiz Fernandes Nery RafaelJuiz de DireitoSão Paulo, 03 de dezembro de 2020.DOCUMENTO ASSINADO DIGITALMENTE NOS TERMOS DA LEI 11.419/2006, CONFORME IMPRESSÃO À MARGEM DIREITAPara conferir o original, acesse o site https://esaj.tjsp.jus.br/pastadigital/pg/abrirConferenciaDocumento.do, informe o processo 1044622-49.2020.8.26.0002 e código CE82118.Este documento é cópia do original, assinado digitalmente por PEDRO LUIZ FERNANDES NERY RAFAEL, liberado nos autos em 14/12/2020 às 14:09 .fls. 91</t>
+  </si>
+  <si>
+    <t>TRIBUNAL DE JUSTIÇA DO ESTADO DE SÃO PAULOCOMARCA DE SÃO PAULOFORO CENTRAL CÍVEL26ª VARA CÍVELPRAÇA JOÃO MENDES S/Nº, São Paulo - SP - CEP 01501-900Horário de Atendimento ao Público: das 12h30min às19h00min      1082983-35.2020.8.26.0100 - lauda 1SENTENÇAProcesso Digital nº:1082983-35.2020.8.26.0100Classe - AssuntoDespejo - Despejo por Denúncia VaziaRequerente:Maize Lambiasi de AraujoRequerido:Auto Escola Fatto S/c Ltda - MePrioridade IdosoJuiz(a) de Direito: Dr(a). Carlos Eduardo Borges FantaciniVistos.MAIZE LAMBIASI DE ARAUJO move AÇÃO DE DESPEJO CUMULADA POR DENÚNCIA VAZIA contra AUTO ESCOLA FATTO S/C LTDA, alegando, em síntese, que em decorrência do falecimento de seu pai Alberto José Lambiasi, tornou-se a única locadora do imóvel situado nesta Capital na Rua João Adolpho, nº17. Diz que a requerida por força de contrato de locação, para fins não residenciais, tornou-se locatária do imóvel, com contrato celebrado pelo prazo de 24 meses, com início em 10 de outubro de 1.998 e término em 10 de outubro de 2.000. Assim, a locação vige por prazo indeterminado. A autora, por não ter mais interesse na mantença da relação locatícia, promoveu, nos termos do disposto no artigo 57 da Lei nº 8.245/91 a notificação da requerida em 03 de agosto de 2.020 para que no prazo de 30 dias desocupasse o imóvel.Assim, não tendo a requerida desocupado o imóvel no referido prazo, requer a rescisão do contrato de locação, com o despejo da ré, bem como a condenação da requerida aos ônus de sucumbência.A ré contestou às fls. 47/55, alegando em suma que sempre honrou com o pagamento do aluguel e cumprimento do contrato, tendo deixado de fazê-lo única e exclusivamente pela pandemia da COVID. Diz que nas locações comerciais, o locatário tem direito à indenização pelo fundo de comércio. Réplica às fls. 58/60.É o relatório.FUNDAMENTO E DECIDO.Julgo antecipadamente a lide, com fulcro no inciso I do artigo 355 do Código de Processo Civil, porque a matéria em parte é incontroversa e em parte está comprovada documentalmente.Para conferir o original, acesse o site https://esaj.tjsp.jus.br/pastadigital/pg/abrirConferenciaDocumento.do, informe o processo 1082983-35.2020.8.26.0100 e código A28151A.Este documento é cópia do original, assinado digitalmente por CARLOS EDUARDO BORGES FANTACINI, liberado nos autos em 04/12/2020 às 16:09 .fls. 64,TRIBUNAL DE JUSTIÇA DO ESTADO DE SÃO PAULOCOMARCA DE SÃO PAULOFORO CENTRAL CÍVEL26ª VARA CÍVELPRAÇA JOÃO MENDES S/Nº, São Paulo - SP - CEP 01501-900Horário de Atendimento ao Público: das 12h30min às19h00min      1082983-35.2020.8.26.0100 - lauda 2A demanda é procedente. A autora pleiteou a retomada do imóvel com base no vencimento do termo final do contrato celebrado com a ré em 10 de outubro de 1998 e prorrogado por tempo indeterminado desde 10 de outubro de 2000. O contrato por tempo indeterminado, como ocorre no presente caso, pode ser denunciado, a qualquer momento, por meio de notificação do locador, com prazo de 30 dias para desocupação, o que foi atendido pela autora. A notificação dirigida ao imóvel locado para cumprimento do disposto no artigo 46, §2º, da Lei n. 8.245/91 não padece de qualquer irregularidade (fls. 06). E a notificação válida realizada pela autora com base no artigo 46, § 2º, da Lei n. 8.245/91, torna forçoso o acolhimento da pretensão de extinção da locação, a partir do ajuizamento da ação, com o consequente despejo da ré. No mais, a pretensão da ré ao ressarcimento é improcedente. Isso porque, tendo a autora simplesmente exercido o regular direito de retomar o imóvel após o decurso do termo final do contrato escrito firmado entre as partes, é descabido condená-la no pagamento de indenização pelo fundo de comércio em favor da ré. Ademais, a ré somente faria jus à proteção do fundo de comércio se possuísse contrato por prazo determinado de mais de cinco anos, que lhe desse o direito à ação renovatória, não sendo este o caso dos autos. Neste sentido:ﬁCIVIL. LOCAÇÃO NÃO RESIDENCIAL. CONTRATO POR PRAZO INDETERMINADO. FUNDO DE COMÉRCIO. PRETENSÃO DE INDENIZAÇÃO. IMPROCEDÊNCIA. LEI Nº 8.245/91 - Art. 52, § 3º. - Pela compreensão sistemática dos arts. 51 e 52, § 3º, da Lei do Inquilinato - Lei nº 8.245/91 -, não é devida a indenização a título de perda do fundo de comércio na hipótese de rescisão unilateral de contrato de locação não residencial por prazo indeterminado, sem pleito de renovação. - Recurso especial conhecido e providoﬂ. (STJ, REsp 282473/BA, Rel. Ministro VICENTE LEAL, SEXTA TURMA, julgado em 27/08/2002, DJ 16/09/2002,p. 236). ﬁLocação de imóvel. Despejo por denúncia vazia. Locação comercial. Indenização pela perda do fundo de comércio. Inadmissibilidade. O pleito de indenização por fundo de comércio está condicionado ao preenchimento dos requisitos da ação renovatória. Contrato vigente por prazo indeterminado, que não dá direito à renovação compulsória (art. 51, I, da Lei nº 8.245/91). Não tendo o locatário direito à renovação compulsória do contrato de locação, não tem igualmente direito à indenização pelo fundo de comércio, pelas perdas e danos, nem pelos Para conferir o original, acesse o site https://esaj.tjsp.jus.br/pastadigital/pg/abrirConferenciaDocumento.do, informe o processo 1082983-35.2020.8.26.0100 e código A28151A.Este documento é cópia do original, assinado digitalmente por CARLOS EDUARDO BORGES FANTACINI, liberado nos autos em 04/12/2020 às 16:09 .fls. 65,TRIBUNAL DE JUSTIÇA DO ESTADO DE SÃO PAULOCOMARCA DE SÃO PAULOFORO CENTRAL CÍVEL26ª VARA CÍVELPRAÇA JOÃO MENDES S/Nº, São Paulo - SP - CEP 01501-900Horário de Atendimento ao Público: das 12h30min às19h00min      1082983-35.2020.8.26.0100 - lauda 3lucros cessantes daí decorrentes. Apelo desprovido.ﬂ (TJSP; Apelação Cível 0186342-96.2012.8.26.0100; Relator (a): Carlos Dias Motta; Órgão Julgador: 29ª Câmara de Direito Privado; Foro Central Cível - 22ª Vara Cível; Data do Julgamento: 08/06/2016; Data de Registro: 09/06/2016).Dessa forma, a proteção do fundo de comércio do locatário está reservada aos inquilinos que, tendo contrato por prazo determinado, com duração de mais de cinco anos, possam exigir a renovação. Improcedem, pois, os pedidos de condenação da autora no pagamento de indenização por danos materiais por perda do ponto.Pelo exposto, JULGO PROCEDENTE o pedido inicial para decretar o despejo da ré (conforme prazo de desocupação já fixado na ação de despejo por falta de pagamento), dando por extinto o contrato de locação celebrado pelas partes, a partir do ajuizamento da ação.Arcará ainda a ré com as custas e despesas processuais, inclusive honorários advocatícios de 10% do valor da causa.P.R.I.São Paulo, 03 de dezembro de 2020.DOCUMENTO ASSINADO DIGITALMENTE NOS TERMOS DA LEI 11.419/2006, CONFORME IMPRESSÃO À MARGEM DIREITAPara conferir o original, acesse o site https://esaj.tjsp.jus.br/pastadigital/pg/abrirConferenciaDocumento.do, informe o processo 1082983-35.2020.8.26.0100 e código A28151A.Este documento é cópia do original, assinado digitalmente por CARLOS EDUARDO BORGES FANTACINI, liberado nos autos em 04/12/2020 às 16:09 .fls. 66</t>
+  </si>
+  <si>
+    <t>TRIBUNAL DE JUSTIÇA DO ESTADO DE SÃO PAULOCOMARCA DE MAUÁFORO DE MAUÁ4ª VARA CÍVELAV. JOÃO RAMALHO, 111, Maua - SP - CEP 09371-901Horário de Atendimento ao Público: das 12h30min às19h00min      1004497-68.2020.8.26.0348 - lauda 1SENTENÇAProcesso Digital nº:1004497-68.2020.8.26.0348Classe - AssuntoDespejo - Despejo por Denúncia VaziaRequerente:Manuel das Neves SantosRequerido:Padaria e Confeitaria ﬁki-pãoﬂ Ltda e outrosJuiz(a) de Direito: Dr(a). CESAR AUGUSTO DE OLIVEIRA QUEIROZ ROSALINOVistos.Trata-se de ação de despejo fundado em denúncia vazia que Manuel das Neves Santos move em face de Padaria e Confeitaria Ki-Pão Ltda, alegando, em síntese, que firmou com a parte ré contrato de locação comercial do imóvel localizado à Rua Regente Feijó, n°. 123, Vila Bocaina, nesta comarca de Mauá, pelo prazo de 05 (cinco) anos, com início em 01/06/2013, vigendo por tempo indeterminado, com aluguel mensal atual no valor de R$ 17.065,78. Prossegue narrando que providenciou a notificação premonitória prevista em Lei a fim de encerrar o vínculo contratual, tendo a parte ré ciência inequívoca a respeito, e, não obstante decorridos os trinta dias estabelecidos para desocupação, permanece no imóvel.Postula, pois, seja julgada procedente a lide, declarando-se extinta a relação locatícia e decretando-se o despejo da parte ré.Com a inicial vieram os documentos de fls. 05/11.Regularmente citada, a parte ré ofertou contestação às fls. 29/37. Não se opôs ao despejo pretendido, requerendo, contudo, dadas as dificuldades para encontrar outro imóvel nas mesmas condições para instalação da padaria, que emprega cerca de 40 (quarenta) colaboradores; e as dificuldades impostas pela pandemia do COVID-19, com reflexos econômico-financeiros, seja concedido prazo excepcional de 12 (doze) meses para a desocupação do imóvel, contados da citação. Juntou fotografias do imóvel às fls. 40/45.Réplica anotada (fls. 59/60), esclarecendo o autor que a parte ré não efetua o pagamento dos alugueres devidos desde novembro de 2018, data anterior à pandemia, e que a dívida já alcança cifra considerável e será executada oportunamente.Além disso, alegou que até o presente momento não fora providenciado pela parte ré o alvará do corpo de bombeiros, sendo que tais razões culminaram no desinteresse pela Para conferir o original, acesse o site https://esaj.tjsp.jus.br/pastadigital/pg/abrirConferenciaDocumento.do, informe o processo 1004497-68.2020.8.26.0348 e código 35C6E31.Este documento é cópia do original, assinado digitalmente por CESAR AUGUSTO DE OLIVEIRA QUEIROZ ROSALINO, liberado nos autos em 27/11/2020 às 14:52 .fls. 63,TRIBUNAL DE JUSTIÇA DO ESTADO DE SÃO PAULOCOMARCA DE MAUÁFORO DE MAUÁ4ª VARA CÍVELAV. JOÃO RAMALHO, 111, Maua - SP - CEP 09371-901Horário de Atendimento ao Público: das 12h30min às19h00min      1004497-68.2020.8.26.0348 - lauda 2continuidade do vínculo contratual em questão.É o relatório. Fundamento e DECIDO. O feito comporta julgamento antecipado, nos termos do artigo 355, inciso I, do Código de Processo Civil, eis que versa matéria exclusivamente de direito. A simples leitura da contestação revela que inexiste impugnação à pretensão inicial de desocupação do imóvel, não sendo apresentado pelo requerido qualquer fato impeditivo, modificativo ou extintivo do direito do autor. Limitou-se o réu a criticar a pretensão de desocupação do imóvel em razão da pandemia, requerendo prazo suplementar entre 06 e 12 meses.Ocorre que, inexplicavelmente, deixou o requerido de comprovar o regular pagamento dos alugueis mensais, ou ainda a sua real impossibilidade de fazê-lo.Tampouco buscou eventual revisão da avença por meio extrajudicial ou judicial, sendo evidente sua deslealdade ao utilizar imóvel alheio para o desempenho de atividade empresarial, auferindo lucros, mas deixando de cumprir suas obrigações junto ao locador.Sequer juntou aos autos balancetes, documentos fiscais e contábeis, extratos de contas correntes e demais elementos hábeis a comprovar o alegado impacto financeiro decorrente da pandemia, valendo notar que, em momento algum foi determinado pelas autoridades o fechamento de estabelecimentos relacionados ao comércio de alimentos.Se de fato houve desequilíbrio das prestações do contrato com rompimento do sinalagma, caberia ao locatário buscar em regular contraditório judicial a apuração dos fatos para o eventual reajuste do pacto, não se justificando a permanência gratuita em imóvel alheio.No vertente caso, não obstante sejam de conhecimento público e notório as determinações para suspensão das atividades não essenciais pelo Poder Público, visando conter o avanço da pandemia do coronavírus, assim como as consequências econômicas que resultarão para todos, inexiste fundamento jurídico para a suspensão do pagamento dos alugueis do contrato.No mais, anoto que a situação decorrente da pandemia de coronavirus é de natureza passageira e por isso mesmo não tem pertinência a alegação de impossibilidade do cumprimento da obrigação consistente em efetuar o pagamento dos aluguel.Para conferir o original, acesse o site https://esaj.tjsp.jus.br/pastadigital/pg/abrirConferenciaDocumento.do, informe o processo 1004497-68.2020.8.26.0348 e código 35C6E31.Este documento é cópia do original, assinado digitalmente por CESAR AUGUSTO DE OLIVEIRA QUEIROZ ROSALINO, liberado nos autos em 27/11/2020 às 14:52 .fls. 64,TRIBUNAL DE JUSTIÇA DO ESTADO DE SÃO PAULOCOMARCA DE MAUÁFORO DE MAUÁ4ª VARA CÍVELAV. JOÃO RAMALHO, 111, Maua - SP - CEP 09371-901Horário de Atendimento ao Público: das 12h30min às19h00min      1004497-68.2020.8.26.0348 - lauda 3ﬁSe é de prever-se que a impossibilidade pode passar, a extinção da dívida não se dá. Enquanto tal mudança é de esperar-se, de jeito que se consiga a finalidade do negócio jurídico, nem incorre em mora o devedor, nem, a fortiori, se extingue a dívida. Mas, ainda aí, é de advertir-se que a duração da impossibilidade passageira, ou de se supor passageira, pode ser tal que se tenha de considerar ofendida a finalidade, dando ensejo a direito de resoluçãoﬂ (PONTES DE MIRANDA, F. C. Tratado de direito privado. t. XXV. São Paulo: Revista dos Tribunais, 2012, p. 289.Sobre o tema, o valioso magistério do Professor José Fernando Simão em recente artigo no qual aborda o tema1:(...) Há uma pandemia e, por ato do Poder Executivo, os Shoppings Centers fecham. Não há público, não há faturamento. O shopping center cobra dos lojistas a componente fixa do aluguel. Há uma pandemia e o comércio de rua, por ato do Estado, fecha suas portas. Não há público e o lojista precisa pagar o aluguel. A pergunta que cabe em ambos os casos é: há uma impossibilidade de se cumprir a prestação que é pecuniária (dar dinheiro)? A resposta é obviamente negativa. Aliás o jornal Valor econômico de hoje, dia 27.03.2020, afirma que ﬁcaixa alto ajuda grandes empresas a enfrentar a criseﬂ. Segundo o jornal, 85% das companhias que tem ação na bolsa conseguem honrar seus compromissos trabalhistas mesmo que ficassem 12 meses sem faturar. E metade das empresas restantes (15%, portanto) suportariam 6 meses. São 97 empresas não financeiras que fazem parte do IBOVESPA e do Índice Small Caps. Da mesma forma, a ausência de passageiros em aviões. Não há impedimento para o transporte ocorrer, mas há custos altos em se transportar poucos passageiros. E ainda que as empresas, sem faturamento, não tivessem dinheiro para pagar o aluguel, força maior é um conceito que não se aplica aos exemplos dados. Há hipóteses em que a força maior resulta da pandemia? Há e são relacionadas à prestação de fazer. A empreitada não pode prosseguir pela pandemia. Não se podem reunir os pedreiros e demais funcionários em tempo de quarentena. A prestação de serviços de limpeza para porque o prefeito de certa cidade decreta quarentena que efetivamente proíbe o cidadão de sair de sua casa.(...) Muitos contratos, em razão da pandemia (motivo imprevisível), nasceram equilibrados (sinalagma genético), mas suas prestações ficaram manifestamente desproporcionais pela mudança da base objetiva do negócio.1 https://www.migalhas.com.br/coluna/migalhas-contratuais/323599/o-contrato-nos-tempos-da-covid-19--esquecam-a-forca-maior-e-pensem-na-base-do-negocioPara conferir o original, acesse o site https://esaj.tjsp.jus.br/pastadigital/pg/abrirConferenciaDocumento.do, informe o processo 1004497-68.2020.8.26.0348 e código 35C6E31.Este documento é cópia do original, assinado digitalmente por CESAR AUGUSTO DE OLIVEIRA QUEIROZ ROSALINO, liberado nos autos em 27/11/2020 às 14:52 .fls. 65,TRIBUNAL DE JUSTIÇA DO ESTADO DE SÃO PAULOCOMARCA DE MAUÁFORO DE MAUÁ4ª VARA CÍVELAV. JOÃO RAMALHO, 111, Maua - SP - CEP 09371-901Horário de Atendimento ao Público: das 12h30min às19h00min      1004497-68.2020.8.26.0348 - lauda 4É por isso que o contrato de locação comercial (não residencial nos termos da lei 8.245/91) passa a ser o centro das atenções em tempos de pandemia. Os centros comerciais (Shoppings Centers) estão fechados por decisão do poder executivo. As lojas deixam de ter qualquer faturamento, ou seja, cessam suas atividades.Se é verdade que o aluguel a ser pago pelo volume de vendas (faturamento) cai para zero, a chamada res sperata, ou seja, as vantagens que o locatário paga por estar naquele shopping center, cujo renome lhe rende bons resultados, precisa ser revista quando há fechamento do shopping. Note-se que as despesas do empreendedor com água, luz, limpeza etc. (repassadas ou não aos lojistas) tende a zero. Os custos do empreendimento se minimizam demais quando há o encerramento (temporário das atividades).Há que se lembrar nessa ﬁbusca pelo sinalagma perdidoﬂ que empreendedor e lojista são simultaneamente vítimas da pandemia. (...) Para as locações de shopping center, Aline de Miranda Valverde Terra, indica como os fundamentos da revisão os artigos 567 do Código Civil e art. 19 da Lei 8.245/9120. Isso também vale para as locações em geral." (g.n.)A pretensão trazida pela ré de simplesmente deixar de efetuar o pagamento dos alugueis se mostra bastante simplista, para não dizer, individualista, pois a situação pela qual o país atravessa acarreta consequências gravosas também para o autor que possui compromissos anteriores assumidos e conta com o recebimento dos valores contratados.Embora sedutora a ideia de suspender o cumprimento das obrigações, sob o prisma exclusivo do devedor, não de pode esquecer que do outro lado também existe uma parte que sofre igualmente as consequências do fato aleatório decorrente da pandemia, não cabendo ao Poder Judiciário ser elemento de desestabilização das relações econômicas e sociais.Certamente se todos os contratos a partir de então deixassem de ser cumpridos instalar-se-ia o caos econômico, um verdadeiro efeito cascata com a quebra generalizada de empresas, desemprego e irreversíveis efeitos sobre o mercado, trazendo ainda mais prejuízos para toda a sociedade.Ao que se infere da réplica apresentada, a parte ré encontra-se inadimplente com o pagamento dos alugueres devidos desde novembro de 2018, há dois anos, o que inviabiliza a pretendida concessão de prazo suplementar para desocupação, configurando abuso de direito, na medida em que se utiliza da propriedade de terceiro para obtenção de lucro em sua atividade empresarial sem a correspondente contraprestação devida. Com efeito, pouco mais há para se dizer, senão que a denúncia vazia em casos como o presente é autorizada pelo art. 57 da Lei n° 8.245/91: ﬁO contrato de locação por prazo Para conferir o original, acesse o site https://esaj.tjsp.jus.br/pastadigital/pg/abrirConferenciaDocumento.do, informe o processo 1004497-68.2020.8.26.0348 e código 35C6E31.Este documento é cópia do original, assinado digitalmente por CESAR AUGUSTO DE OLIVEIRA QUEIROZ ROSALINO, liberado nos autos em 27/11/2020 às 14:52 .fls. 66,TRIBUNAL DE JUSTIÇA DO ESTADO DE SÃO PAULOCOMARCA DE MAUÁFORO DE MAUÁ4ª VARA CÍVELAV. JOÃO RAMALHO, 111, Maua - SP - CEP 09371-901Horário de Atendimento ao Público: das 12h30min às19h00min      1004497-68.2020.8.26.0348 - lauda 5indeterminado pode ser denunciado por escrito, pelo locador, concedidos ao locatário trinta dias para a desocupaçãoﬂ.Cuida-se no caso de contrato renovado por prazo indeterminado, e o locatário foi notificado por escrito para a desocupação por força da rescisão do contrato, de modo que a procedência do pedido é medida de rigor.Ante o exposto, JULGO PROCEDENTE O PEDIDO, resolvendo o mérito nos termos do art. 487, I do CPC, para declarar rescindido o contrato de locação firmado entre as partes e DECRETAR O DESPEJO DO RÉU, fixando o prazo de 30 (trinta) dias para desocupação voluntária, nos termos do art. 63, caput, da Lei nº 8.245/91.Condeno o réu ao pagamento das custas e despesas processuais, além dos honorários advocatícios, que, de acordo com os parâmetros fornecidos pelo § 8º do art. 85 do CPC, fixo por equidade em R$ 5.000,00 (cinco mil reais).É fixada caução do valor equivalente a 6 (seis) meses do aluguel para o caso de execução provisória (art. 64, da Lei n°. 8.245/91 conforme redação dada pela Lei nº 12.112/09).Quando e em termos, expeça-se o necessário.Oportunamente, arquivem-se os autos.P.I.C.Maua, 25 de novembro de 2020.DOCUMENTO ASSINADO DIGITALMENTE NOS TERMOS DA LEI 11.419/2006, CONFORME IMPRESSÃO À MARGEM DIREITAPara conferir o original, acesse o site https://esaj.tjsp.jus.br/pastadigital/pg/abrirConferenciaDocumento.do, informe o processo 1004497-68.2020.8.26.0348 e código 35C6E31.Este documento é cópia do original, assinado digitalmente por CESAR AUGUSTO DE OLIVEIRA QUEIROZ ROSALINO, liberado nos autos em 27/11/2020 às 14:52 .fls. 67</t>
+  </si>
+  <si>
+    <t>TRIBUNAL DE JUSTIÇA DO ESTADO DE SÃO PAULOCOMARCA DE SÃO PAULO1ª VARA CÍVELRua Dr. João Ribeiro nº 433 - 5º andar, 5º andar - Sala 501, Penha de França - CEP 03634-010, Fone: 2093-6612r6004, São Paulo-SP - E-mail: penha1cv@tjsp.jus.brC O N C L U S Ã OEm 13 de novembro de 2020, faço estes autos conclusos ao MM. Juiz(a) de Direito  da 1ª Vara Cível do Foro Regional da Penha de França, Comarca de São Paulo. José Luiz de Jesus Vieira, Juiz de Direito.SENTENÇAProcesso nº:1000970-67.2020.8.26.0006 - DespejoRequerente:Maria Rodrigues da CostaRequerido:João Ernesto da Silva JuniorPrioridade IdosoJustiça GratuitaJuiz(a) de Direito: Dr(a). José Luiz de Jesus VieiraVistos.MARIA RODRIGUES DA COSTA, ajuizou em 03/02/2020 "ação ordinária de despejo Œ denúncia vazia", em face de JOÃO ERNESTO DA SILVA JUNIOR, alegando, em síntese, que "a requerente deu em locação ao Requerido, o imóvel residencial, situado à Rua Plínio Reis nº 148, casa 03, por contrato escrito, pelo prazo de 30 meses, iniciando-se em 23/11/2015, com término em 22 de maio de 2018, de modo que, encontra-se prorrogado por prazo indeterminado. Sem interesse na continuidade da referida locação, conforme faz prova o incluso traslado, buscando exercer o seu direito, a Requerente distribuiu uma Notificação, que tramitou perante a r.2ª Vara Cível do Fôro Regional de Penha de França, processo nº 1010517-68.2019.8.2.0006, concedendo ao ora Requerido, o prazo de 30 (trinta) dias O Requerido foi devidamente notificado em 01/dez./2019. Inobstante os fatos acima e, embora já decorrido o prazo que lhe foi concedido na notificação, o Requerido insiste em permanecer no imóvel locado. para a desocupação do imóvel". Requer "seja julgada procedente a ação para decretar o despejo do Requerido, bem como a rescisão contratual".Juntou documentos (fls.06/38).Para conferir o original, acesse o site https://esaj.tjsp.jus.br/pastadigital/pg/abrirConferenciaDocumento.do, informe o processo 1000970-67.2020.8.26.0006 e código CC26898.Este documento é cópia do original, assinado digitalmente por JOSE LUIZ DE JESUS VIEIRA, liberado nos autos em 19/11/2020 às 19:01 .fls. 72,TRIBUNAL DE JUSTIÇA DO ESTADO DE SÃO PAULOCOMARCA DE SÃO PAULO1ª VARA CÍVELRua Dr. João Ribeiro nº 433 - 5º andar, 5º andar - Sala 501, Penha de França - CEP 03634-010, Fone: 2093-6612r6004, São Paulo-SP - E-mail: penha1cv@tjsp.jus.brO requerido apresentou contestação (fls.50/55), alegando, em síntese, que "sempre honrou o referido contrato de locação, efetuando o pagamento de todos os aluguéis e demais encargos, conforme recibos inclusos (...) mora com sua esposa e filho e estão à procura de outro imóvel para residir, porém vem enfrentando problemas desde o final de ano, que se agravaram depois da Pandemia que vêm assolando nosso país, pois o mesmo trabalha como autônomo na área de eventos (...) necessita de prazo para que possa se mudar com sua família, pois o Requerido está negociando as suas dívidas e de sua esposa, para que possam no primeiro momento celebrar contrato de locação em outro imóvel, haja vistanão terem outro local para morar (...) pleiteia a concessão do prazo legal de seis meses para que possa desocupar o referido imóvel, tendo em vista que, no presente caso, a ação fora fundada no § 2º do art. 46 da Lei 8.245/09".Juntou documentos (fls.59/64).Deferido ao requerido os benefícios da assistência judiciária gratuita (fl.65).Réplica (fls.67/71).É o relatório.Decido.Julgo o processo no estado, nos termos do artigo 355, inciso I, do Código de Processo Civil/2015.Em matéria de julgamento antecipado da lide, predomina a prudente discrição do magistrado, no exame da necessidade ou não da realização de prova em audiência, ante as circunstâncias de cada caso concreto e a necessidade de não ofender o princípio basilar do pleno contraditório." (STJ, 4ª Turma, REsp 3.047-ES, Rel. Min. Athos Carneiro, julgado em 21.08.90, DJU 17.09.90, p. 9.514).A preliminar de intempestividade da contestação deve ser acolhida, pois o requerido foi citado em 01/06/20, o mandado de citação foi juntado em 04/06/20 (fl.29), o feriado de 11/06/20, em São Paulo, foi antecipado para 20/05/20, assim como a suspensão de Para conferir o original, acesse o site https://esaj.tjsp.jus.br/pastadigital/pg/abrirConferenciaDocumento.do, informe o processo 1000970-67.2020.8.26.0006 e código CC26898.Este documento é cópia do original, assinado digitalmente por JOSE LUIZ DE JESUS VIEIRA, liberado nos autos em 19/11/2020 às 19:01 .fls. 73,TRIBUNAL DE JUSTIÇA DO ESTADO DE SÃO PAULOCOMARCA DE SÃO PAULO1ª VARA CÍVELRua Dr. João Ribeiro nº 433 - 5º andar, 5º andar - Sala 501, Penha de França - CEP 03634-010, Fone: 2093-6612r6004, São Paulo-SP - E-mail: penha1cv@tjsp.jus.brexpediente de 12/06/20 fora cancelada em virtude do provimento CSM nº 2.558/2020, o qual dispôs sobre a antecipação de feriados para a Comarca da Capital.Portanto, o prazo para o requerido contestar a ação se findou em 24/06/2020, mas o requerido apresentou a sua contestação somente em 05/07/2020, ou seja, fora do prazo legal e como consequência se tornou revel.A não apresentação de resposta tem como consequência a presunção de aceitação da veracidade dos fatos articulados na petição inicial pela parte autora. Todavia, tal não ocorre se o contrário resultar da convicção do juiz, ou ocorra as hipóteses do artigo 320 do Código de Processo Civil.No entanto, a matéria é estritamente de direito, o que não é abrangido pelos efeitos da revelia e mesmo o réu revel pode intervir no processo a qualquer momento no estado em que se encontrar (artigo 346, parágrafo único, do CPC/2015).As partes celebraram contrato (fls.06/12), por meio do qual a autora locou ao réu imóvel de sua propriedade.Tal locação, inicialmente firmada por tempo determinado, após o término do prazo, ficou prorrogada por tempo indeterminado, com a permanência do réu no imóvel sem oposição da autora.O Requerido foi devidamente notificado em 01/dez./2019 (fl.38) a fim de que desocupasse o imóvel, mas manteve-se inerte.A hipótese é, sem dúvida, de despejo por denúncia vazia, autorizado pela Lei n. 8.245/91 (art. 57), sendo desnecessária a discriminação do motivo da retomada. Basta, como sabido, não mais interessar ao locador a continuidade da locação para que, uma vez denunciado o contrato, se possa retomar o imóvel.Por outro lado, tendo em vista às medidas restritivas impostas pelo poder público em razão da calamidade pública decretada pelo Governo Federal e da quarentena determinada pelo Governo do Estado de São Paulo decorrente da pandemia de Sars-Cov-2 (Covid-19) é razoável que seja concedido o prazo de 60 dias a fim de que o réu desocupe voluntariamente o imóvel. Para conferir o original, acesse o site https://esaj.tjsp.jus.br/pastadigital/pg/abrirConferenciaDocumento.do, informe o processo 1000970-67.2020.8.26.0006 e código CC26898.Este documento é cópia do original, assinado digitalmente por JOSE LUIZ DE JESUS VIEIRA, liberado nos autos em 19/11/2020 às 19:01 .fls. 74,TRIBUNAL DE JUSTIÇA DO ESTADO DE SÃO PAULOCOMARCA DE SÃO PAULO1ª VARA CÍVELRua Dr. João Ribeiro nº 433 - 5º andar, 5º andar - Sala 501, Penha de França - CEP 03634-010, Fone: 2093-6612r6004, São Paulo-SP - E-mail: penha1cv@tjsp.jus.brDesta feita, a procedência da ação é medida que se impõe.Ante o exposto, JULGO PROCEDENTE a "ação ordinária de despejo Œ denúncia vazia" ajuizada por MARIA RODRIGUES DA COSTA, em face de JOÃO ERNESTO DA SILVA JUNIOR nos termos do artigo 487, inciso I do Código de Processo Civil/2015, combinado com a Lei nº 8.245/91, artigo 9º, inciso III, art. 46, § 2º e artigo 63, § 1º, alínea "a", para rescindir o contrato e consequentemente DECRETO o despejo do réu e tendo em vista as medidas restritivas impostas pelo poder público em razão da calamidade pública decretada pelo Governo Federal e da quarentena determinada pelo Governo do Estado de São Paulo decorrente da pandemia de Sars-Cov-2 (Covid-19) FIXO o prazo de 60 dias para que desocupe o réu desocupe voluntariamente o imóvel, sob pena de despejo compulsório.No mais, condeno o requerido ao pagamento das custas e despesas processuais e honorários de sucumbência no importe de 10% do valor da causa atualizado, nos termos do artigo 85, § 2º, do CPC/2015; mas suspendo a exigibilidade enquanto perdurar o estado de hipossuficiência financeira legal, nos termos do artigo 98, § 3º, do Código de Processo Civil/2015.P.I.C.São Paulo,13 de novembro de 2020.Para conferir o original, acesse o site https://esaj.tjsp.jus.br/pastadigital/pg/abrirConferenciaDocumento.do, informe o processo 1000970-67.2020.8.26.0006 e código CC26898.Este documento é cópia do original, assinado digitalmente por JOSE LUIZ DE JESUS VIEIRA, liberado nos autos em 19/11/2020 às 19:01 .fls. 75</t>
+  </si>
+  <si>
+    <t>TRIBUNAL DE JUSTIÇA DO ESTADO DE SÃO PAULOCOMARCA DE UBATUBAFORO DE UBATUBA3ª VARARUA SÉRGIO LUCINDO DA SILVA, 571, Ubatuba - SP - CEP 11680-000       1000161-12.2020.8.26.0642 - lauda 1SENTENÇAProcesso nº:1000161-12.2020.8.26.0642Classe - AssuntoDespejo - Despejo para Uso PróprioRequerente:Marcos Rodrigues Penna e outroRequerido:Roberto Barbosa da PaixaoPrioridade IdosoJuiz(a) de Direito: Dr(a). Diogo Volpe Gonçalves SoaresVistos. SÉRGIO MURILO EIRAS DA ROCHA ajuizou a presente ação em face de ROBERTO BARBOSA DA PAIXÃO, requerendo a concessão de liminar para o despejo do requerido, o que deve ser ratificado no mérito, com a rescisão do contrato de locação entabulado entre as partes. Por meio da decisão de fls. 46/47, a liminar foi indeferida. Em resposta, o requerido arguiu, em preliminar, a inadequação da via eleita, ante a impossibilidade de propositura de ação de despejo por denúncia vazia cumulada com cobrança. No mais, dissertou sobre a confusão das contas de água entre o imóvel locado e aquele destinado à moradia do autor, bem como manifestou-se acerca da impossibilidade momentânea de pagamento dos alugueres em razão da pandemia da COVID-19, e apontou a ausência de apresentação de planilha de cálculos pelo autor. Requereu a improcedência da ação. Houve réplica.Instadas a especificar provas, as partes se manifestaram a fls. 82/83 e 84/87.Para conferir o original, acesse o site https://esaj.tjsp.jus.br/pastadigital/pg/abrirConferenciaDocumento.do, informe o processo 1000161-12.2020.8.26.0642 e código 6EF45E0.Este documento é cópia do original, assinado digitalmente por DIOGO VOLPE GONCALVES SOARES, liberado nos autos em 09/11/2020 às 14:05 .fls. 89,TRIBUNAL DE JUSTIÇA DO ESTADO DE SÃO PAULOCOMARCA DE UBATUBAFORO DE UBATUBA3ª VARARUA SÉRGIO LUCINDO DA SILVA, 571, Ubatuba - SP - CEP 11680-000       1000161-12.2020.8.26.0642 - lauda 2É o relatório. Fundamento e decido. A ação é PROCEDENTE. Por primeiro, não vislumbro a necessidade de designação de audiência ou de apresentação de mais provas documentais, eis que o conjunto probatório amealhado nos autos já se encontra suficientemente completo e apto à justa solução da lide.Evidencio, desde já, que tal decisão não configura, de forma alguma, cerceamento de defesa. Isso porque, mormente a existência de previsão constitucional assegurando às partes litigantes a ampla defesa e o devido processo legal (cf. Artigo 5º, inciso LV), compete ao Magistrado, amparado pela teoria processualista do livre convencimento motivado, valorar as provas que considera necessárias ao seu convencimento, e, por conseguinte, obstar a produção de provas inúteis, eis que as referidas provas processuais se destinam a ele próprio.A esse respeito, são as lições de Nelson Nery Junior, ao comentar o Novo Código de Processo Civil: ﬁRegem a prova os princípios processuais: a) do livre convencimento motivado do juiz, segundo o qual o juiz aprecia livremente as provas, mas deve das as razões de seu convencimentoﬂ (In Comentários ao Código de Processo Civil. Novo CPC  Lei 13.105/2015. São Paulo: RT, 2015, p. 985).  Outrossim, considerando-se a teoria da persuasão racional do juiz, adotada pelo Código de Processo Civil de 1973, e mantida no Novo Código de Processo Civil (cf. Artigo 371), o Magistrado dispõe de ampla liberdade para a Para conferir o original, acesse o site https://esaj.tjsp.jus.br/pastadigital/pg/abrirConferenciaDocumento.do, informe o processo 1000161-12.2020.8.26.0642 e código 6EF45E0.Este documento é cópia do original, assinado digitalmente por DIOGO VOLPE GONCALVES SOARES, liberado nos autos em 09/11/2020 às 14:05 .fls. 90,TRIBUNAL DE JUSTIÇA DO ESTADO DE SÃO PAULOCOMARCA DE UBATUBAFORO DE UBATUBA3ª VARARUA SÉRGIO LUCINDO DA SILVA, 571, Ubatuba - SP - CEP 11680-000       1000161-12.2020.8.26.0642 - lauda 3análise dos elementos de convicção amealhados nos autos, cabendo-lhe, como já mencionado, evitar a produção de provas desnecessárias ou inúteis ao seu convencimento e a justa solução da lide (cf. Artigo 370, caput e parágrafo único, do Código de Processo Civil de 2015).Tal entendimento, aliás, encontra-se em plena consonância com o disposto no artigo 77, inciso III, do Novo Código de Processo Civil, que determina ser dever das partes não produzir provas, tampouco praticar atos inúteis ou desnecessários à declaração ou à defesa do direito, bem como com o disposto no artigo 369, do mesmo diploma legal, que concede às partes o direito de empregar todos os meios legais e moralmente legítimos para provar a verdade dos fatos em que se funda o pedido ou a defesa e influir eficazmente na convicção do juiz.  Destarte, urge evidenciar que, mormente o disposto no supramencionado artigo 369, do Novo Código de Processo Civil, a dilação probatória está condicionada à possibilidade jurídica da prova, e ao interesse e relevância de sua produção para a elucidação da lide, não constituindo, portanto, qualquer afronta ao princípio constitucional da ampla defesa o indeferimento das provas que o Magistrado entender desnecessárias. Até porque, reitero, as provas devem ser produzidas com o intuito de convicção do Juiz. Insta salientar, ainda, que as provas produzidas no bojo de um processo devem ser interpretadas como um todo, de sorte que o Magistrado, ao formar seu convencimento, não permaneça vinculado a nenhuma delas, e, em especial, a prova testemunhal, que possui relativa força probatória.Conclui-se, portanto, que o indeferimento de prova apenas consubstanciará cerceamento de defesa se tal elemento resultar na possibilidade de alterar a convicção do julgador, o que não ocorre na presente situação.Para conferir o original, acesse o site https://esaj.tjsp.jus.br/pastadigital/pg/abrirConferenciaDocumento.do, informe o processo 1000161-12.2020.8.26.0642 e código 6EF45E0.Este documento é cópia do original, assinado digitalmente por DIOGO VOLPE GONCALVES SOARES, liberado nos autos em 09/11/2020 às 14:05 .fls. 91,TRIBUNAL DE JUSTIÇA DO ESTADO DE SÃO PAULOCOMARCA DE UBATUBAFORO DE UBATUBA3ª VARARUA SÉRGIO LUCINDO DA SILVA, 571, Ubatuba - SP - CEP 11680-000       1000161-12.2020.8.26.0642 - lauda 4Nesse sentido:PROCESSUAL CIVIL  JULGAMENTO ANTECIPADO DA LIDE  CERCEAMENTO DE DEFESA  PROVA TESTEMUNHAL  NÃO OCORRÊNCIA  NULIDADE AFASTADA  PRELIMINAR REPELIDA. O juiz é o destinatário da prova e deve decidir quais provas são relevantes à formação de sua convicção, a teor do disposto nos artigos 370 e 371, do Código de Processo Civil. No caso, o resultado da análise das provas contrário ao interesse da parte (apelante) não pode ser confundido com violação ao contraditório e à ampla defesa. Assim, presente o requisito do art. 355, I, do Código de Processo Civil, de rigor o julgamento antecipado da lide, não constituindo este fato a nulidade de cerceamento de defesa ante a não realização da prova testemunhal (TJSP, Apelação nº 1118385-85.2017.8.26.0100, Rel. Des. Paulo Ayrosa, j. 05.09.2018).Ação de reintegração de posse  Cerceamento de defesa  Inocorrência  Não há cerceamento de defesa, quando os elementos trazidos aos autos autorizam o julgamento antecipado da lide, sendo a prova documental produzida suficiente para tanto  Preliminar repelida. Ação de reintegração de posse  Improcedência  Prova da posse anterior dos autores não demonstrada  Esbulho possessório não caracterizado  Requisitos dos artigos 561, do CPC e 1.210 do CC não preenchidos  Recurso negado. Recurso negado (TJSP; €Apelação Cível 1017948-76.2018.8.26.0625; Relator Des. Francisco Giaquinto; j. 16/10/2019)No mesmo diapasão, leciona Arruda Alvim: ﬁCabe ao juiz deferir as provas necessárias à instrução do processo, indeferindo as diligências inúteis ou meramente protelatórias (art. 130). A parte não pode impor ao juiz a realização deste ou daquele meio de prova, cabendo ao juiz indeferir as que entenda inúteis Para conferir o original, acesse o site https://esaj.tjsp.jus.br/pastadigital/pg/abrirConferenciaDocumento.do, informe o processo 1000161-12.2020.8.26.0642 e código 6EF45E0.Este documento é cópia do original, assinado digitalmente por DIOGO VOLPE GONCALVES SOARES, liberado nos autos em 09/11/2020 às 14:05 .fls. 92,TRIBUNAL DE JUSTIÇA DO ESTADO DE SÃO PAULOCOMARCA DE UBATUBAFORO DE UBATUBA3ª VARARUA SÉRGIO LUCINDO DA SILVA, 571, Ubatuba - SP - CEP 11680-000       1000161-12.2020.8.26.0642 - lauda 5ou meramente protelatórias [...] O simples requerimento para produção de determinada prova, e a sua eventual não realização, não é, por si só, motivo que configure cerceamento de defesa  é preciso que a não produção da prova requerida tenha comprometido a defesa da parte. Nesse sentido é o entendimento do STJﬂ (In Comentários ao Código de Processo Civil. 2ª Ed. São Paulo: RT, 2012, p. 357/358).Por conseguinte, torna-se inexorável reconhecer que a supressão de diligências inúteis e desnecessárias, que em nada contribuem para o deslinde do feito, não caracteriza cerceamento de defesa.Isso posto, afasto as ponderações feitas pelo requerido a fls. 82/83 acerca de eventual irregularidade na procuração, uma vez que o fato de o instrumento ter sido outorgado há muitos anos não macula a sua validade, bem como noto que o documento de fls. 15/16 é claro ao permitir o substabelecimento de poderes. No mais, não há que se falar em inadequação da via eleita, uma vez que o objeto da presente ação é o despejo por denúncia vazia, inexistindo efetivo pleito de cobrança de eventuais alugueres atrasados (vide explicação feita em sede de réplica), o que, por conseguinte, torna despicienda a apresentação de planilha de débitos.   Destarte, em análise aos autos, verifico ter restado incontroversa a relação jurídica mantida entre as partes, consistente em um ﬁContrato de Locaçãoﬂ (fls. 19/20), cuja vigência encerraria no dia 10 de novembro de 2017 (cf. Cláusula 1ª  fls. 19), mas fora prorrogado por prazo indeterminado. No mais, noto também ser inequívoco que o autor manifestou o seu desinteresse em manter a relação de locação, oportunidade em que procedera à notificação extrajudicial do requerido no dia 23 de dezembro de 2019, Para conferir o original, acesse o site https://esaj.tjsp.jus.br/pastadigital/pg/abrirConferenciaDocumento.do, informe o processo 1000161-12.2020.8.26.0642 e código 6EF45E0.Este documento é cópia do original, assinado digitalmente por DIOGO VOLPE GONCALVES SOARES, liberado nos autos em 09/11/2020 às 14:05 .fls. 93,TRIBUNAL DE JUSTIÇA DO ESTADO DE SÃO PAULOCOMARCA DE UBATUBAFORO DE UBATUBA3ª VARARUA SÉRGIO LUCINDO DA SILVA, 571, Ubatuba - SP - CEP 11680-000       1000161-12.2020.8.26.0642 - lauda 6requerendo a desocupação do imóvel até o dia 23 de janeiro de 2020 (fls. 23), o que, todavia, não foi cumprido.E, em que pesem as considerações tecidas pelo requerido acerca de eventual confusão do consumo de água e sobre a momentânea impossibilidade de efetuar o pagamento dos alugueres em razão da pandemia da COVID-19, a verdade é que o autor não possui qualquer interesse em manter a locação de seu imóvel ao requerido (cf. fls. 23), impondo-se, assim, a rescisão da locação e a decretação do despejo.Até porque, como é notoriamente sabido, o despejo de locatário de imóvel destinado a fim residencial, assim como no presente caso (cf. Cláusula 14ª  fls. 20), com contrato em vigor por prazo indeterminado, não requer fundamento específico, bastando a vontade do locador, que tem o direito de denunciar o contrato, a qualquer tempo, cabendo-lhe fazê-lo por escrito, concedendo ao locatário o prazo de trinta dias para a desocupação (cf. Artigo 46, da Lei nº 8.245/1991).Para ilustrar:      Locação de imóvel urbano - Despejo por denúncia vazia - O despejo de locatário de imóvel com contrato em vigor por prazo indeterminado, não requer fundamento específico. A lei assegura ao locador o direito de denunciar o contrato, por escrito, a qualquer momento, concedendo ao locatário o prazo de trinta dias para desocupação (art. 46 da Lei nº 8.245/91). - Não há direito à indenização pelo valor gasto com reparos no imóvel, quando há renúncia ao direito de retenção e indenização pelas benfeitorias - Apelo não provido (TJSP; €Apelação Cível 1006769-56.2019.8.26.0320; Relatora Des. Silvia Rocha; j. 29/10/2020).Diante do exposto, JULGO PROCEDENTE a presente ação movida Para conferir o original, acesse o site https://esaj.tjsp.jus.br/pastadigital/pg/abrirConferenciaDocumento.do, informe o processo 1000161-12.2020.8.26.0642 e código 6EF45E0.Este documento é cópia do original, assinado digitalmente por DIOGO VOLPE GONCALVES SOARES, liberado nos autos em 09/11/2020 às 14:05 .fls. 94,TRIBUNAL DE JUSTIÇA DO ESTADO DE SÃO PAULOCOMARCA DE UBATUBAFORO DE UBATUBA3ª VARARUA SÉRGIO LUCINDO DA SILVA, 571, Ubatuba - SP - CEP 11680-000       1000161-12.2020.8.26.0642 - lauda 7por SÉRGIO MURILO EIRAS DA ROCHA em face de ROBERTO BARBOSA DA PAIXÃO, e o faço para: a) rescindir o contrato de locação entabulado entre as partes (fls. 19/20), e b) decretar o despejo da parte ré, determinando a expedição de mandado de despejo com prazo de 30 (trinta) dias para desocupação voluntária (cf. Artigo 63, caput, da Lei nº 8.245/91), sob pena de despejo coercitivo.No mais, em razão da causalidade e sucumbência, condeno o requerido ao pagamento das custas processuais e honorários advocatícios, que fixo em 10% (dez por cento) sobre o valor atualizado da causa, nos termos do artigo 85, § 2º, do Código de Processo Civil. Como corolário, JULGO EXTINTA a presente ação, com resolução de mérito, nos termos do artigo 487, inciso I, do Código de Processo Civil.Oportunamente, arquivem-se os autos, observadas as formalidades legais.P.R.I.Ubatuba, 01 de novembro de 2020.DIOGO VOLPE GONÇALVES SOARESJuiz de DireitoDOCUMENTO ASSINADO DIGITALMENTE NOS TERMOS DA LEI 11.419/2006, CONFORME IMPRESSÃO À MARGEM DIREITAPara conferir o original, acesse o site https://esaj.tjsp.jus.br/pastadigital/pg/abrirConferenciaDocumento.do, informe o processo 1000161-12.2020.8.26.0642 e código 6EF45E0.Este documento é cópia do original, assinado digitalmente por DIOGO VOLPE GONCALVES SOARES, liberado nos autos em 09/11/2020 às 14:05 .fls. 95</t>
+  </si>
+  <si>
+    <t>TRIBUNAL DE JUSTIÇA DO ESTADO DE SÃO PAULOCOMARCA DE SÃO PAULOFORO REGIONAL VII - ITAQUERAVARA DO JUIZADO ESPECIAL CÍVELESTRADA DE POÁ Nº 696, São Paulo-SP - CEP 08460-000Horário de Atendimento ao Público: das 12h30min às18h00minProcesso n.º 1007327-60.2020.8.26.0007 - 1SENTENÇAProcesso nº:1007327-60.2020.8.26.0007 - DespejoRequerente:JOSÉ CICERO ALVES DE MELORequerido:PATRICIA DE PAULA MATOS FERREIRAJuiz(a) de Direito: JOÃO AENDER CAMPOS CREMASCOVistos.Dispensado o relatório, conforme o art. 38 da Lei nº 9.099/95,Fundamento e Decido.Diante da pandemia de COVID-19, a parte ré foi intimada para apresentar defesa escrita em 15 dias, sob pena de revelia.Conforme o Enunciado n.º 13 do FONAJE (Fórum Nacional de Juizados Especiais), "nos Juizados Especiais Cíveis, os prazos processuais contam-se da data da intimação ou da ciência do ato respectivo, e não da juntada do comprovante da intimação".Como o prazo de 15 dias decorreu sem manifestação da parte ré, devem ser considerados verdadeiros os fatos alegados pela parte autora, salvo se o contrário resultar da convicção do Juiz. No caso em apreço, aquela presunção de veracidade leva ao acolhimento da pretensão da parte autora que comprovou a propriedade do imóvel dado em locação à requerida (fls. 13/17) que foi notificada para desocupação do imóvel para uso próprio do locatário (fls. 28/30).Por fim, anoto que outros argumentos eventualmente deduzidos no processo não são capazes de, em tese, infirmar a presente conclusão.Em razão do exposto, JULGO PROCEDENTE a ação para decretar o despejo da ré do imóvel identificado na inicial, concedendo-lhes o prazo de trinta (30) dias para desocupação voluntária (artigo 63, ﬁcaputﬂ, da Lei nº 8.245/91).Expeça-se mandado de despejo, autorizando-se a desocupação forçada, findo o prazo concedido nesta decisão.Honorários, custas e despesas processuais: não há condenação ao pagamento de honorários e de custas e despesas processuais, porque incabíveis nesta fase processual do Juizado Especial Cível (Lei nº 9.099/95, arts. 54 e 55).PUBLICAÇÃO E INTIMAÇÃO DESTA SENTENÇAA(s) parte(s) fica(m) ciente(s) e intimada(s) do inteiro teor desta sentença e também do seguinte: (a) que o prazo para apresentação de recurso é de 10 dias úteis, iniciando-se sua contagem no 1.º dia útil seguinte à data da intimação da sentença;(b) que o recurso não possui efeito suspensivo do julgado (art. 43 da Lei 9099/95), de tal maneira que o juízo concita as partes a cumprirem a sentença; (c) o recurso somente pode ser feito por advogado(a). Caso a parte não esteja assistida por advogado(a) e queira recorrer da sentença, deverá constituir um(a) profissional Para conferir o original, acesse o site https://esaj.tjsp.jus.br/pastadigital/pg/abrirConferenciaDocumento.do, informe o processo 1007327-60.2020.8.26.0007 e código CA30054.Este documento é cópia do original, assinado digitalmente por JOAO AENDER CAMPOS CREMASCO, liberado nos autos em 29/10/2020 às 18:37 .fls. 40,TRIBUNAL DE JUSTIÇA DO ESTADO DE SÃO PAULOCOMARCA DE SÃO PAULOFORO REGIONAL VII - ITAQUERAVARA DO JUIZADO ESPECIAL CÍVELESTRADA DE POÁ Nº 696, São Paulo-SP - CEP 08460-000Horário de Atendimento ao Público: das 12h30min às18h00minProcesso n.º 1007327-60.2020.8.26.0007 - 2de sua confiança, para que o recurso seja apresentado no prazo acima mencionado. Se a situação econômica da parte não lhe permitir pagar as custas do processo e os honorários de advogado(a), sem prejuízo do sustento próprio ou da família, deverá procurar o serviço de assistência judiciária da Defensoria Pública, no seguinte endereço: Rua Sabbado D´Angelo, n.º 2.040, bairro de Itaquera, de 2.ª a 6.ª feira, das 12h30min às 14h30min (retirada de senha), telefone 11.2079-6069, para pedido de indicação de Defensor Público ou advogado dativo, para que o recurso seja apresentado no prazo acima mencionado;(d) o valor do preparo deve ser a soma de 1% (um por cento) do valor da causa ou cinco UFESPS, o que for maior, mais 4% (quatro por cento) do total da condenação ou cinco UFESPS, o que for maior, ressalvada a gratuidade da justiça deferida à parte recorrente, quando efetivamente concedida nos autos;(e) que é de 48 horas o prazo para efetuar o pagamento do preparo do recurso, a partir da interposição do recurso, sob pena de deserção (art. 42, § 1.º, da Lei n.º 9099/95);(f) no processo físico, a parte recorrente deverá pagar o porte de remessa e retorno no mesmo prazo de 48 horas,  a partir da interposição do recurso, multiplicando o número de volumes do processo pelo valor unitário atualizado, que foi publicado no DJe.(g) no processo eletrônico (digital), a parte somente está obrigada a recolher o porte de remessa e retorno, naquele prazo de 48 horas, caso tenha sido colhida prova oral em audiência e/ou haja documentos físicos ou outros objetos depositados em cartório e que tenham que ser enviados ao Colégio Recursal juntamente com o recurso. Nesse caso, a quantia a ser recolhida corresponderá ao valor unitário atualizado, que foi publicado no DJe.Publique-se. Registre-se. Intimem-se.São Paulo, 29 de outubro de 2020.DOCUMENTO ASSINADO DIGITALMENTE NOS TERMOS DA LEI n.º 11.419/2006, CONFORME IMPRESSÃO À MARGEM DIREITAPara conferir o original, acesse o site https://esaj.tjsp.jus.br/pastadigital/pg/abrirConferenciaDocumento.do, informe o processo 1007327-60.2020.8.26.0007 e código CA30054.Este documento é cópia do original, assinado digitalmente por JOAO AENDER CAMPOS CREMASCO, liberado nos autos em 29/10/2020 às 18:37 .fls. 41</t>
+  </si>
+  <si>
+    <t>TRIBUNAL DE JUSTIÇA DO ESTADO DE SÃO PAULOCOMARCA DE FRANCAFORO DE FRANCA3ª VARA CÍVELAV.PRESIDENTE VARGAS, 2650, Franca - SP - CEP 14402-000TERMO DE AUDIÊNCIA - CONCILIAÇÃOJuiz de Direito : Humberto Rocha27/10/20 13:30: ConciliaçãoProcesso:1037146-91.2019.8.26.0196: DespejoAssuntos: Despejo por Denúncia VaziaReqte: Walter Luiz Silveira  ausenteAdvogado: OAB 286168/SP - Helder Ribeiro Machado  presenteReqdo: Madereira Presidente Vargas  Eireli  presenteAdvogado: OAB 398437/SP - Euripedes André de Oliveira  presenteAos 27 de outubro de 2020, às 13:30h, na sala de audiências da 3ª Vara Cível, do Foro de Franca, Comarca de Franca, Estado de São Paulo, sob a presidência do(a) MM. Juiz(a) de Direito Dr(a). Humberto Rocha, comigo Escrevente ao final nomeado, foi aberta a audiência de conciliação nos autos da ação entre as partes em epígrafe, considerando as disposições do Comunicado 284/2020, a se realizar por videoconferência e ante a concordância prévia das partes e procuradores para a realização deste modo, após envio do link para acesso pessoal, via e-mail, conectaram-se ao ato os acima nominados. Proposta a conciliação, esta restou frutífera nos seguintes termos: A requerida desocupará o imóvel objeto da presente ação, deixando-o livre de pessoas ou coisas até o dia 30/01/2021, ciente de que a não desocupação até a data pactuada importará na desocupação coercitiva, com auxílio da força policial, se necessário for, desde logo autorizada por este juiz. Havendo desocupação até a data pactuada (30/01/2021), o autor isenta a requerida do pagamento dos locatícios em atraso e IPTU e a não desocupação até a data referida; além de importar na desocupação coercitiva, ensejará ao autor a cobrança dos locatícios em atraso e IPTU, bem como dos consectários legais. Cada parte arcará com os honorários do seu advogado, custas já recolhidas na inicial. A requerida renuncia neste ato a qualquer indenização por eventual ou suposta benfeitoria útil ou necessária lançada no imóvel bem como renuncia a qualquer eventual ou suposto direito de retenção.  Ante o exposto, com fulcro nos artigos 840/850 da Lei 10.406/02 (Código Civil), HOMOLOGO a presente transação para que surtam efeitos legais e jurídicos e, por conseguinte, JULGO EXTINTO o processo 1037146-91.2019.8.26.0196, e as reconvenções 0010074-15.2020.8.26.0196 e 0005416-45.2020.8.26.0196, com resolução de mérito, o que fundamento no art. 487, III, letra "b" da Lei 13.105/15. Com fundamento nos artigos 225 e 999 da Lei 13105/15, HOMOLOGO a renúncia ao direito recursal. Dou esta sentença por publicada em audiência, saindo as partes e advogados cientes e intimados, nos termos dos artigos 223, 224 §1º, e 1003, §1º, todos do Código de Processo Civil. REGISTRE-SE, anote-se a extinção e arquivem-se. Consignado que a audiência foi realizada excepcionalmente por meio virtual, diante da Pandemia da COVID-19, e da impossibilidade ao acesso de pessoas ao prédio do Fórum, por estarem em perfeito acordo, sendo cópia do presente termo disponibilizado visualmente para as partes e advogados, não sendo alegada qualquer contradição, após a leitura do termo, concordaram integralmente com seu teor. Cientes os presentes. NADA MAIS. Eu, _______ (Daniela Ferreira Gusmão), escrevente técnico judiciário, digitei. JUIZ DE DIREITO: HUMBERTO ROCHA Para conferir o original, acesse o site https://esaj.tjsp.jus.br/pastadigital/pg/abrirConferenciaDocumento.do, informe o processo 1037146-91.2019.8.26.0196 e código 6B0BDF2.Este documento é cópia do original, assinado digitalmente por HUMBERTO APARECIDO DA ROCHA, liberado nos autos em 29/10/2020 às 14:29 .fls. 210</t>
+  </si>
+  <si>
+    <t>TRIBUNAL DE JUSTIÇA DO ESTADO DE SÃO PAULOCOMARCA DE MOGI DAS CRUZESFORO DE MOGI DAS CRUZESVARA DO JUIZADO ESPECIAL CÍVEL E CRIMINALAV. CANDIDO XAVIER DE ALMEIDA E SOUZA, 159, Mogi das Cruzes-SP - CEP 08780-210       1011619-93.2020.8.26.0361 - lauda 1SENTENÇAProcesso nº:1011619-93.2020.8.26.0361Classe Œ Assunto:Despejo - Despejo para Uso Próprio Requerente:Zilda Alves dos Santos de PalmaRequerido:Guilherme Bruno Assim PimentaJuiz(a) de Direito: Dr(a). Thiago Massao Cortizo TeraokaVistos.Dispensado o relatório, nos termos do artigo 38 da Lei n. 9.099/1995.Fundamento e decido.(i)O feito merece ser julgado antecipadamente, pois está suficientemente instruído.  A dilação probatória, no caso, seria contrária ao princípio da celeridade processual e da razoável duração do processo. Assim, aplicável o artigo 355, I, do Código de Processo Civil, tendo em vista a desnecessidade de produção de provas em audiência.(ii)A parte autora, ao que parece, realmente não tem outro imóvel em localidade próxima. Assim, penso que não há motivos para afastar a competência deste Juizado para o julgamento da controvérsia. O contrato tem prazo determinado, de 1 ano, prorrogável por 5 anos (fl. 9). Antes de 1 ano, o autor já manifestou o seu desinteresse na prorrogação (fl. 14/16).Portanto, o contrato não se prorrogou até 30/09/2025, por força da notificação do autor dentro do prazo de 1 ano do contrato.Assim, o autor tem direito a reaver o imóvel.Para conferir o original, acesse o site https://esaj.tjsp.jus.br/pastadigital/pg/abrirConferenciaDocumento.do, informe o processo 1011619-93.2020.8.26.0361 e código 34C36AA.Este documento é cópia do original, assinado digitalmente por THIAGO MASSAO CORTIZO TERAOKA, liberado nos autos em 29/10/2020 às 14:04 .fls. 55,TRIBUNAL DE JUSTIÇA DO ESTADO DE SÃO PAULOCOMARCA DE MOGI DAS CRUZESFORO DE MOGI DAS CRUZESVARA DO JUIZADO ESPECIAL CÍVEL E CRIMINALAV. CANDIDO XAVIER DE ALMEIDA E SOUZA, 159, Mogi das Cruzes-SP - CEP 08780-210       1011619-93.2020.8.26.0361 - lauda 2(iii)É certo que estamos em pandemia da COVID-19. No entanto, as restrições diminuíram e o despejo é decretado em sentença, após o contraditório. Fixo o prazo razoável de 30 dias.DISPOSITIVODiante do exposto, JULGO PROCEDENTE a demanda. RESOLVO o mérito, nos termos do artigo 487, I, do Código de Processo Civil.DECLARO rescindo o contrato.CONDENO o réu a desocupar o imóvel, no prazo de 30 dias, corridos (prazo de direito material), sob pena de despejo coercitivo. Considerando que o recurso inominado, nos Juizados, assim como a apelação em ação de despejo, não tem efeito suspensivo, o prazo conta-se a partir da intimação desta sentença.Para evitar questionamentos sobre o termo "a quo" do prazo para o cumprimento, a parte autora poderá intimar também diretamente a ré, desta sentença.Cópia desta decisão, acompanhada com os documentos necessários, valerá como ofício para intimação da parte contrária acerca do deferimento do pedido antecipatório ou para terceiros que devam cumpri-lo. O interessado pode verificar a autenticidade deste documento e imprimi-lo em consulta ao site do E. Tribunal de Justiça de São Paulo, acesso no link: http://esaj.tjsp.jus.br. O interessado deverá instruir o ofício com as cópias necessárias para o cumprimento da ordem, reconhecida a autenticidade pelo próprio advogado (art. 425, inc. IV, do CPC). Entregue o documento na repartição correspondente, a parte Autora deverá apresentar ao Cartório comprovação da entrega, com o protocolo na cópia do ofício.Em caso de qualquer divergência, poderá ser reproduzido o documento pelo sistema SAJ. A presente medida tem por objetivo diminuir a sobrecarga do Cartório e agilizar o procedimento, dispensando, ainda, a vinda do advogado ao Para conferir o original, acesse o site https://esaj.tjsp.jus.br/pastadigital/pg/abrirConferenciaDocumento.do, informe o processo 1011619-93.2020.8.26.0361 e código 34C36AA.Este documento é cópia do original, assinado digitalmente por THIAGO MASSAO CORTIZO TERAOKA, liberado nos autos em 29/10/2020 às 14:04 .fls. 56,TRIBUNAL DE JUSTIÇA DO ESTADO DE SÃO PAULOCOMARCA DE MOGI DAS CRUZESFORO DE MOGI DAS CRUZESVARA DO JUIZADO ESPECIAL CÍVEL E CRIMINALAV. CANDIDO XAVIER DE ALMEIDA E SOUZA, 159, Mogi das Cruzes-SP - CEP 08780-210       1011619-93.2020.8.26.0361 - lauda 3Cartório. Porém, em face de qualquer impedimento, bastará ao advogado que postule o encaminhamento do ofício pela própria Serventia.DEFIRO a AJG a parte ré. INDEFIRO a parte autora, pois tem imóvel como investimento e fonte de rendimento. Não é pobre, portanto.Não há condenação em custas ou honorários (artigo 55 da Lei nº 9.099/1995).Para fins de recurso inominado: O prazo para recurso é de dez dias, começando a fluir a partir da intimação desta decisão, devendo ser interposto por advogado, acompanhado de preparo, no valor de R$ 276,10, nos termos da Lei nº 11.608/2003, não havendo prazo suplementar para sua apresentação ou complementação. Em havendo mídia física, também será cobrado o valor de R$ 43,00.Para fins de execução: A parte condenada deverá cumprir a sentença no prazo de 15 dias após o trânsito, independentemente da intimação.Com advogado. Em relação a parte assistida por advogado, decorrido o prazo sem cumprimento voluntário da(s) obrigação(ões), o advogado deverá requerer o início da execução, no prazo de trinta dias, oportunidade em que deverá apresentar cálculo atualizado, com inclusão da multa de 10%, nos termos do Enunciado 47 do FOJESP. Nessa hipótese, os autos tramitarão por meio eletrônico, como incidente de cumprimento de sentença em procedimento de Juizado Especial (classe 156) e instruído com as seguintes peças (a) sentença e acórdão, se existente; (b) certidão de trânsito em julgado; (c) demonstrativos do débito atualizado; (d) mandado de citação cumprido e procurações outorgadas aos advogados das partes, além de outras peças processuais que o exequente considere necessárias. Pontuo que o patrono da parte exequente deverá, ao iniciar o cumprimento de sentença, cadastrar a parte executada e seu respectivo advogado. Iniciado o cumprimento, proceda o cartório à baixa dos autos, remetendo-os ao arquivo. Acaso não seja iniciada a execução de sentença em até 30 (trinta) dias, a contar do trânsito em julgado, os autos deverão ser destruídos, resguardado o direito de a parte executar o título judicial até o prazo de prescrição deste.Para conferir o original, acesse o site https://esaj.tjsp.jus.br/pastadigital/pg/abrirConferenciaDocumento.do, informe o processo 1011619-93.2020.8.26.0361 e código 34C36AA.Este documento é cópia do original, assinado digitalmente por THIAGO MASSAO CORTIZO TERAOKA, liberado nos autos em 29/10/2020 às 14:04 .fls. 57,TRIBUNAL DE JUSTIÇA DO ESTADO DE SÃO PAULOCOMARCA DE MOGI DAS CRUZESFORO DE MOGI DAS CRUZESVARA DO JUIZADO ESPECIAL CÍVEL E CRIMINALAV. CANDIDO XAVIER DE ALMEIDA E SOUZA, 159, Mogi das Cruzes-SP - CEP 08780-210       1011619-93.2020.8.26.0361 - lauda 4O prazo para a interposição de recurso inominado é de 10 dias, conforme Enunciado 46 da ENFAM.Após o trânsito em julgado, aguarde-se pelo prazo de trintas dias para o desentranhamento de documentos, o que desde já é deferido. Após, decorrido o prazo ou desentranhados eventuais documentos, encaminhem-se os autos à destruição. Na hipótese de autos digitais, com o trânsito em julgado arquivem-se os autos.Publique-se. Intimem-se.Mogi das Cruzes, 29 de outubro de 2020.Para conferir o original, acesse o site https://esaj.tjsp.jus.br/pastadigital/pg/abrirConferenciaDocumento.do, informe o processo 1011619-93.2020.8.26.0361 e código 34C36AA.Este documento é cópia do original, assinado digitalmente por THIAGO MASSAO CORTIZO TERAOKA, liberado nos autos em 29/10/2020 às 14:04 .fls. 58</t>
   </si>
 </sst>
 </file>
@@ -563,13 +596,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -594,295 +627,328 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>60</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>62</v>
+      </c>
+      <c r="J7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>63</v>
+      </c>
+      <c r="J8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I11" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="J11" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
